--- a/Infopine_SpringBoot_Assignment_V1.0_24Dec2020.xlsx
+++ b/Infopine_SpringBoot_Assignment_V1.0_24Dec2020.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sathyas\Project_Discussion\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sathyas\Project_Discussion\Doc\Spring_Assignmnt_Docs_24Dec2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="VersionControl" sheetId="6" r:id="rId1"/>
@@ -4780,9 +4780,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4813,76 +4810,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5317,6 +5253,70 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -6049,7 +6049,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B5:K96" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="B5:K96">
     <filterColumn colId="7">
-      <filters blank="1">
+      <filters>
         <filter val="Completed - 04-01-2021"/>
       </filters>
     </filterColumn>
@@ -6063,44 +6063,44 @@
     <tableColumn id="6" name="Start date" dataDxfId="27"/>
     <tableColumn id="7" name="Due on" dataDxfId="26"/>
     <tableColumn id="8" name="Sathyaseelan Status" dataDxfId="25"/>
-    <tableColumn id="10" name="Referrence URL" dataDxfId="1"/>
-    <tableColumn id="9" name="Queries/Remarks" dataDxfId="0"/>
+    <tableColumn id="10" name="Referrence URL" dataDxfId="24"/>
+    <tableColumn id="9" name="Queries/Remarks" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B5:D43" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B5:D43" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
   <tableColumns count="3">
-    <tableColumn id="1" name="Sr.No." dataDxfId="20"/>
-    <tableColumn id="2" name="Questions / Assignments" dataDxfId="19"/>
-    <tableColumn id="3" name="Answer [Its not exact, but key to recal]" dataDxfId="18"/>
+    <tableColumn id="1" name="Sr.No." dataDxfId="18"/>
+    <tableColumn id="2" name="Questions / Assignments" dataDxfId="17"/>
+    <tableColumn id="3" name="Answer [Its not exact, but key to recal]" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B5:E22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B5:E22" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <autoFilter ref="B5:E22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Sr.No." dataDxfId="13"/>
-    <tableColumn id="2" name="Subject" dataDxfId="12"/>
-    <tableColumn id="3" name="Questions / Assignments" dataDxfId="11" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" name="Answer [Its not exact, but key to recal]" dataDxfId="10"/>
+    <tableColumn id="1" name="Sr.No." dataDxfId="11"/>
+    <tableColumn id="2" name="Subject" dataDxfId="10"/>
+    <tableColumn id="3" name="Questions / Assignments" dataDxfId="9" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="Answer [Its not exact, but key to recal]" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B5:D42" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B5:D42" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="B5:D42"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Sr.No." dataDxfId="4"/>
-    <tableColumn id="2" name="Questions / Assignments" dataDxfId="3"/>
-    <tableColumn id="3" name="Answer [Its not exact, but key to recal]" dataDxfId="2"/>
+    <tableColumn id="1" name="Sr.No." dataDxfId="2"/>
+    <tableColumn id="2" name="Questions / Assignments" dataDxfId="1"/>
+    <tableColumn id="3" name="Answer [Its not exact, but key to recal]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6371,8 +6371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:G10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6430,7 +6430,7 @@
         <v>44189</v>
       </c>
       <c r="G8" s="10">
-        <v>44196</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
@@ -6460,7 +6460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:K96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
@@ -6505,10 +6505,10 @@
       <c r="I5" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="K5" s="76" t="s">
+      <c r="K5" s="75" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6533,8 +6533,8 @@
       <c r="I6" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23">
@@ -6759,7 +6759,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="74" t="s">
+      <c r="J16" s="73" t="s">
         <v>147</v>
       </c>
       <c r="K16" s="7"/>
@@ -7375,7 +7375,7 @@
       <c r="K43" s="7"/>
     </row>
     <row r="44" spans="2:11" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="69">
+      <c r="B44" s="68">
         <v>39</v>
       </c>
       <c r="C44" s="36" t="s">
@@ -7384,21 +7384,21 @@
       <c r="D44" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E44" s="70" t="s">
+      <c r="E44" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71" t="s">
+      <c r="F44" s="69"/>
+      <c r="G44" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="70"/>
+      <c r="H44" s="69"/>
       <c r="I44" s="21" t="s">
         <v>161</v>
       </c>
       <c r="J44" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="K44" s="73" t="s">
+      <c r="K44" s="72" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       <c r="K61" s="7"/>
     </row>
     <row r="62" spans="2:11" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="69">
+      <c r="B62" s="68">
         <v>57</v>
       </c>
       <c r="C62" s="36" t="s">
@@ -7804,7 +7804,7 @@
         <v>8</v>
       </c>
       <c r="F62" s="44"/>
-      <c r="G62" s="72" t="s">
+      <c r="G62" s="71" t="s">
         <v>9</v>
       </c>
       <c r="H62" s="44"/>
@@ -7814,7 +7814,7 @@
       <c r="J62" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="K62" s="73" t="s">
+      <c r="K62" s="72" t="s">
         <v>174</v>
       </c>
     </row>
@@ -8132,7 +8132,7 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
     </row>
-    <row r="77" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B77" s="23">
         <v>72</v>
       </c>
@@ -8158,7 +8158,7 @@
       </c>
       <c r="K77" s="7"/>
     </row>
-    <row r="78" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="23">
         <v>73</v>
       </c>
@@ -8179,7 +8179,7 @@
       <c r="I78" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="J78" s="75" t="s">
+      <c r="J78" s="74" t="s">
         <v>170</v>
       </c>
       <c r="K78" s="7"/>
@@ -8229,7 +8229,7 @@
       <c r="I80" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="J80" s="75" t="s">
+      <c r="J80" s="74" t="s">
         <v>169</v>
       </c>
       <c r="K80" s="7"/>
@@ -8583,8 +8583,8 @@
       <c r="I96" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="J96" s="78"/>
-      <c r="K96" s="78"/>
+      <c r="J96" s="77"/>
+      <c r="K96" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8653,18 +8653,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="78" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
+      <c r="A2" s="78"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
+      <c r="A3" s="78"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
+      <c r="A4" s="78"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -9083,7 +9083,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="78" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="4"/>
@@ -9092,21 +9092,21 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
+      <c r="A2" s="78"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9401,7 +9401,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="78" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="4"/>
@@ -9409,19 +9409,19 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
+      <c r="A2" s="78"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>

--- a/Infopine_SpringBoot_Assignment_V1.0_24Dec2020.xlsx
+++ b/Infopine_SpringBoot_Assignment_V1.0_24Dec2020.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sathyas\Project_Discussion\Doc\Spring_Assignmnt_Docs_24Dec2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sathyas\Project_Discussion\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VersionControl" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="General" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Index!$C$5:$I$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Index!$C$5:$I$97</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Spring!$A$1:$F$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="194">
   <si>
     <t>Subject</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>Google Cloud</t>
-  </si>
-  <si>
-    <t>What is GC and how does it help distributed computine ?</t>
   </si>
   <si>
     <t>What do you know about GCP?</t>
@@ -691,95 +688,6 @@
       </rPr>
       <t xml:space="preserve"> of Spring components with Junit or TestNG.
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. It deals with Type safe objects. It makes the code stable by detecting the bugs at compile time.
-2. This concept introduced at Java5 onwards
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Advantages:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- 1. We can hold only a single type of objects in generics. It doesn?t allow to store other objects. Without Generics, we can store any type of objects.
- 2. Type casting is not required: There is no need to typecast the object
- 3. Compile-Time Checking: It is checked at compile time so problem will not occur at runtime. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Example:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-//Elimination of casts.
-//The following code snippet without generics requires casting:
-List list = new ArrayList();
-list.add("hello");
-String s = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">(String) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">list.get(0);
-//********************/
-//When re-written to use generics, the code does not require casting:
-List&lt;String&gt; list = new ArrayList&lt;String&gt;();
-list.add("hello");
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>String s = list.get(0);   // no cast</t>
     </r>
   </si>
   <si>
@@ -2566,31 +2474,1238 @@
     <t>Completed - 31-12-2020</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">HTTP response status codes indicate whether a specific HTTP request has been successfully completed. Responses are grouped in five classes:
-Informational responses (100–199)
-Successful responses (200–299)
-Redirects (300–399)
+    <t>What is a design pattern?</t>
+  </si>
+  <si>
+    <t>Spring Boot enables building production-ready applications quickly and provides non-functional features:
+Embedded servers which are easy to deploy with the containers.
+It helps in monitoring the multiples components.
+It helps in configuring the components externally.</t>
+  </si>
+  <si>
+    <t>Completed - 04-01-2021</t>
+  </si>
+  <si>
+    <t>Spring supports two types of transaction management
+Programmatic transaction management − This means that you have to manage the transaction with the help of programming. That gives you extreme flexibility, but it is difficult to maintain.
+Declarative transaction management − This means you separate transaction management from the business code. You only use annotations or XML-based configuration to manage the transactions
+Declarative transaction management is preferable over programmatic transaction management though it is less flexible than programmatic transaction management.
+Which allows to control transactions through your code. But as a kind of crosscutting concern, declarative transaction management can be modularized with the AOP approach. Spring supports declarative transaction management through the Spring AOP framework.</t>
+  </si>
+  <si>
+    <t>Spring AOP uses either JDK dynamic proxies or CGLIB(Code Generation Library) to create the proxy for a given target object.
+If the target object to be proxied implements at least one interface then a JDK dynamic proxy will be used
+To force the use of CGLIB proxies set the value of the proxy-target-class attribute of the &lt;aop:config&gt; element to true:
+&lt;aop:config proxy-target-class="true"&gt;
+    &lt;!-- other beans defined here... --&gt;
+&lt;/aop:config&gt;
+To force CGLIB proxying when using the @AspectJ autoproxy support, set the 'proxy-target-class' attribute of the &lt;aop:aspectj-autoproxy&gt; element to true:
+&lt;aop:aspectj-autoproxy proxy-target-class="true"/&gt;</t>
+  </si>
+  <si>
+    <t>Queries/Remarks</t>
+  </si>
+  <si>
+    <t>Referrence URL</t>
+  </si>
+  <si>
+    <t>1. https://www.google.com/search?client=opera&amp;hs=gg5&amp;sxsrf=ALeKk02g7j97Sz0bXnBeC0FW8LrqBJsUHw%3A1609754961504&amp;ei=UenyX-iuHsWG4-EPmYi0qAo&amp;q=How+to+create+dependencies+among+projects+using+Maven%3F&amp;oq=How+to+create+dependencies+among+projects+using+Maven%3F&amp;gs_lcp=CgZwc3ktYWIQAzIECCMQJzoECAAQR1CulgVYrpYFYJ-cBWgAcAN4AIABd4gBd5IBAzAuMZgBAKABAqABAaoBB2d3cy13aXrIAQjAAQE&amp;sclient=psy-ab&amp;ved=0ahUKEwiom5_FhILuAhVFwzgGHRkEDaUQ4dUDCAw&amp;uact=5
+2. https://www.genuitec.com/docs/assembly/creating-java-maven-dependency-project/#:~:text=2.-,Add%20a%20Java%20Maven%20Dependency%20to%20the%20Utility%20Project,to%20search%20for%20a%20dependency.&amp;text=Select%20the%20dependency%2C%20and%20click%20OK.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AOP (Aspect-Oriented Programming)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>programming pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that increases modularity by allowing the separation of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cross-cutting concern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+These cross-cutting concerns are different from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main business logic.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ie., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can add additional behavior to existing code without modification of the code itself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+There are two benefits of aspects:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+            1. The logic for each concern is now in one place instead of scattered all over the codebase. &amp;
+            2. The business modules only contain code for their primary concern. The secondary concern has been moved to the aspect.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Benefits of AOP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It is implemented in pure Java.
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> There is no requirement for a special compilation process.
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It supports only method execution Join points.
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Only run time weaving is available.
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Two types of AOP proxy is available: JDK dynamic proxy and CGLIB proxy.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Before Advice:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> An advice that executes before a join point, is called before advice. To use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation to mark an advice as Before advice.
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Client errors (400–499) --Expalins below
-Server errors (500–599) --Expalins below
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>After Advice:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> An advice that executes after a join point, is called after advice. To use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@After</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation to mark an advice as After advice.
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Around Advice:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> An advice that executes before and after of a join point, is called around advice.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>After Throwing Advice:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> An advice that executes when a join point throws an exception.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>After Returning Advice:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> An advice that executes when a method executes successfully.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/spring/spring_bean_definition.htm</t>
+  </si>
+  <si>
+    <t>https://howtodoinjava.com/spring-core/spring-ioc-vs-di/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The objects that form the backbone of the application and that are managed by the Spring IoC container are called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.A bean is an object that is instantiated, assembled, and otherwise managed by a Spring IoC container. 
+These beans are created with the configuration metadata that you supply to the container.
+Spring Container Configured following Ways:
+ 1. XML based configuration file.
+ 2. Annotation-based configuration
+ 3. Java-based configuration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The flow depends on the object graph that is instantiated by the assembler and is made possible by object interactions being defined through abstractions. 
+The binding process is achieved through dependency injection, although some argue that the use of a service locator also provides inversion of control.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inversion of control as a design guideline serves the following purposes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ 1. There is a decoupling of the execution of a certain task from implementation.
+ 2. Every module can focus on what it is designed for.
+ 3. Modules make no assumptions about what other systems do but rely on their contracts.
+ 4. Replacing modules has no side effect on other modules.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring Container Configured following Ways:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ 1. XML based configuration file.
+ 2. Annotation-based configuration
+ 3. Java-based configuration</t>
+    </r>
+  </si>
+  <si>
+    <t>1. https://www.tutorialspoint.com/spring/spring_ioc_containers.htm
+2. https://data-flair.training/blogs/spring-ioc-containers/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How to implement Pictorial respresentaions in Assignment?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ans:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Share the refference link URL as well as Shared cloud document to</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How to implement Pictorial respresentaions in Assignment?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Share the refference link URL as well as Shared cloud document to</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Spring BeanFactory Container:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+          This is the simplest container providing the basic support for DI.
+          It is defined by the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.springframework.beans.factory.BeanFactory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface.
+          The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BeanFactoryAware, InitializingBean, DisposableBean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, are still present in Spring for the purpose of backward compatibility with a large number of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>third-party</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>frameworks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that integrate with Spring.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Spring ApplicationContext Container:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+          This container adds more enterprise-specific functionality such as the ability to resolve textual messages from a properties file and the ability to publish application events to  interested event listeners. 
+          This container is defined by the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.springframework.context.ApplicationContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. https://data-flair.training/blogs/spring-bean-scope/
+2. https://www.tutorialspoint.com/spring/spring_bean_scopes.htm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Spring Framework supports the following five scopes
+1. singleton:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+         This scopes the bean definition to a single instance per Spring IoC container (default).  (or)
+         If the Spring Bean scope is made singleton then the Spring IoC container defines only one instance of the object. That instance gets stored in the cache of singleton beans
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ @Bean
+ @Scope("singleton")
+ public Person personSingleton() {  return new Person(); }
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prototype:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This scopes a single bean definition to have any number of object instances. (Or)
+            To creates a new bean instance of the object every time a request for that specific bean is made
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ @Bean
+ @Scope("prototype")
+ public Person personPrototype() {   return new Person(); }
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>request:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This scopes a bean definition to an HTTP request. Only valid in the context of a web-aware Spring ApplicationContext. (Or)
+          This request will scope a bean definition to HTPP request. This is only there in context of web-aware Spring Application context. 
+          This will define the bean with the request scope under the @Scope annotation.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ @Bean
+ @Scope(value = WebApplicationContext.SCOPE_REQUEST, proxyMode = ScopedProxyMode.TARGET_CLASS)
+ public HelloMessageGenerator requestMessage() {     return new HelloMessageGenerator(); }
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>session:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This scopes a bean definition to an HTTP session. Only valid in the context of a web-aware Spring ApplicationContext.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+@Bean
+@Scope(value = WebApplicationContext.SCOPE_SESSION, proxyMode = ScopedProxyMode.TARGET_CLASS)
+public HelloMessageGenerator sessionMessage() { return new HelloMessageGenerator(); }
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>global-session:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This scopes a bean definition to a global HTTP session. Only valid in the context of a web-aware Spring ApplicationContext. (Or)
+               This scopes the bean definition to global HTTP session and is only valid for web-aware Application context of Spring. 
+               This type is used in portlet container applications where each portlet having their session.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ @Bean
+ @Scope(value = WebApplicationContext.SCOPE_GLOBAL_SESSION, proxyMode = ScopedProxyMode.TARGET_CLASS)
+ public HelloMessageGenerator globalSessionMessage() {  return new HelloMessageGenerator(); }</t>
+    </r>
+  </si>
+  <si>
+    <t>What is Spring Boot</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Combination of Spring Framework and Embedded servers are called Spring Boot
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Features:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The dependency injection approach is used in Spring Boot.
+It contains powerful database transaction management capabilities.
+It simplifies integration with other Java frameworks like JPA/Hibernate ORM, Struts, etc.
+It reduces the cost and development time of the application.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. It deals with Type safe objects. It makes the code stable by detecting the bugs at compile time.
+2. This concept introduced at Java5 onwards
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Advantages:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ 1. We can hold only a single type of objects in generics. It doesn't allow to store other objects. Without Generics, we can store any type of objects.
+ 2. Type casting is not required: There is no need to typecast the object
+ 3. Compile-Time Checking: It is checked at compile time so problem will not occur at runtime. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+//Elimination of casts.
+//The following code snippet without generics requires casting:
+List list = new ArrayList();
+list.add("hello");
+String s = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(String) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">list.get(0);
+//********************/
+//When re-written to use generics, the code does not require casting:
+List&lt;String&gt; list = new ArrayList&lt;String&gt;();
+list.add("hello");
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>String s = list.get(0);   // no cast</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data abstraction is the process of hiding certain details and showing only essential information to the user.
+Abstraction can be achieved with either abstract classes or interfaces
+The abstract keyword is a non-access modifier, used for classes and methods:
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Abstract class:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is a restricted class that cannot be used to create objects (to access it, it must be inherited from another class).
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Abstract method: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">can only be used in an abstract class, and it does not have a body. The body is provided by the subclass (inherited from).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>To achieve security - hide certain details and only show the important details of an object.</t>
+    </r>
+  </si>
+  <si>
+    <t>Completed - 06-01-2021</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/java/java_abstract.asp</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Configuration:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Annotating a class with the @Configuration annotation indicates that the class will be used by JavaConfig as a source of bean definitions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2598,567 +3713,101 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Client Responses (Errors):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(defaultAutowire = Autowire.BY_TYPE, defaultLazy = Lazy.FALSE)
+public class DataSourceConfiguration {   /* bean definitions follow */  }
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Bad Request)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: The Server could not understand the request due to invalid syntax.
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+public class AppConfig {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    public TransferService transferService() {  return new TransferServiceImpl();    }  }
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>401</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Unauthorized)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: This response means "unauthenticated". The client must authenticate itself to get the requested response.
-402 (Payment request): 
-           This status code very rarely and no standard convention exists.
-           This response code is reserved for future use. the initial aim for creating this code was using it for digital payment systems.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>403</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Forbidden)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: The client does not have access rights to the content, that is it is unauthorized, so the server is refusing to give the requested resource.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>404 (Not found)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: The server cannot find the requested resource. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>In browser:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> The url is not recognized. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>In API:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> The endpoint is valid but the resource itself does not exist.
-405 (Method Not Allowed): The request method is known by the server but has been disabled and cannot be used.
-  For eg: An API may forbit </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DELETE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ing a resource. The two mandatory methods, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>GET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>HEAD,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> must never be disabled and should not return this error code.
-406 (Not Acceptable): This response is sent when the web server, afer performinc server-driven content negotiation, doesn't find any content that conforms to the criteria by the user agent.
-407 (Proxy Authentication Required): This is similar to 401, but authentication is needed to be done by a Proxy.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>408 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Request Timeout): This response is sent on an idele connection by some servers, even without any previous request by the client. It means theat the server would like to shut down this unused connection.
-409 (Conflict): When a request conflicts with the current state of the server.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>410</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Gone):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> This response is sent when the requested content has been permanently deleted fro mtserver, with no forwarding address. clients are expected to remove their caches and links to the resource. 
- The HTTP specification intends this status code to be used for "limited-time, promotional service". 
-  APIs shoud not feel compelled to indicate resources that have been deleted with this status code.
-411 (Length Required): Server  rejected the request because the "Content-Lenght" header field is not defined and the server reuires it.
-412 (Precondition Failed): The client has indicated preconditions in its headers which the server does not meet.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>413 (Payload Too Large):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Request entity is larger than limits defined by server, the server might close the connection or return an Retry-After header field.
-414 (URI Too Long): The URI requrested by the client is longer than the server is willing to interpret.
-415 (Unsupported Media Type): The media format of the requested data is not supported by the server, so the server is rejecting the request.
-416 (Range Not satisiable): The range specified by the Range header field in the request can't be fulfilled. It's possible that the range is outside the size of the target URI's data.
-417 (Expectation Failed): This response code means the expectation indicated by the "Expect" request header field can't be met by the server. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>418</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (I'm a teapot): The server refuses the attempt to brew coffee with a teampot.
-421 (Misdirected Request): This request was directed at a server that is not able to produce a response. This can be sent by a server that is nto configured to produce responses for the combination of scheme and authority that are included in the request URI.
-422 (Unprocessable Entity (WebDAV)): The request was well-formaed but was unable to be followed due to semantic errors.
-423 (Locked (WebDAV)): The resource that is being accessed by locked.
-424 (Failed Dependency (WebDAV)): The request failed due to failure of a prvious request.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>425</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (Too Early): Indicates that the server is unwilling to risk processing a request that might be replayed.
-426 (Upgrade Required): The server refuses to perform the request using the current protocol but hmight be willing to do so after the client upgrades to a different protocol. The server sends an upgrade header in a 426 resonse to indicates the required protocol.
-428 (Precondition Required): The origin server requires the r equest to be conditional. This reponse is intended to prevent the "lost update" problem, where a client GETs a resource's state, modifies it, and PUTs it back to the server, when meanwhile a third party has modified the state on the server, leading to a coflict.
-429 (Too Many Requests): The user has sent too many request in a given amount of time ("rate limiting").
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>431 (Request Header Fields Too Large):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In appConfig.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-             The server is unwilling to process the request because its header fields are too large.
-             The request may be resubmitted after reducing the size of the request header fields.
-451 Unavailable For Legal Reasons: The user-agent reqeusted a resource that cannot legally be provided, such as a web page cnensored by a government.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Server Responses(Error):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>500 (Internal Server Error)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">The server has encountered a situation it doesn't know how to handle.
-501 Not Implemented: 
-             The request method is not supported by the server and cannot be handled. 
-             The only methods that servers are required to support (and thesefore that must not return this code) are GET and HEAD.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>502 Bad Gateway:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> This error response means that the server, while working as a gateway to ge a response needed to handle the request, got an invalid response.
-503 (Service Unavailable): The server is not ready to handle the request. Common causes are a server that is down for maintenance of that is overloaded. Note that together with this response, a user-friendly page explaining the problem should be sent. 
-   This responses should be used for temporary conditions and the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Retry-After</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: HTTP header should, if possible, contain the estimated time before the recovery of the service. The webmaster must also take care about the caching-related headers that are sent along with this response, as these temporary condition responses should usually not be cached. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>504 (Gateway Timeout):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> This error response is given when the server is acting as a getway and cannot get a response in time.
-505 Variant Also Negotiates: The server has an internal configuration error, the chose variant resource is configured to engage in transperanet content negotiation itself, and is therefore not a proper end point in the negotiation process.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>507 Insufficient Storage(WebDAV)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: The method could not be performed on the resource because the server is unable to store the represneeations needed to successfully complete the request.
-508 Loop Detected(WebDAV): The server detected an infinite loop while processing the request.
-510 Not Extended: Further extenstions to the request are required for the server to fulfil it.
-511 Network Authentication Required: The 511 status code indicates that the client needs to authenticate to gain network access.</t>
-    </r>
+&lt;beans&gt;
+    &lt;bean name="transferService" class="com.acme.TransferServiceImpl"/&gt;
+&lt;/beans&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>1. https://www.google.com/search?client=opera&amp;q=Do+you+know+how+to+debug+in+Eclipse+%3F&amp;sourceid=opera&amp;ie=UTF-8&amp;oe=UTF-8
+2. https://www.eclipse.org/community/eclipse_newsletter/2017/june/article1.php#:~:text=A%20Java%20program%20can%20be,Shift%20%2B%20D%2C%20J%20instead.</t>
   </si>
   <si>
     <r>
@@ -3181,7 +3830,9 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> operator to create an object of a class. This is often fine for small Java programs. But when we work on large scale enterprise class applications, the amount of code to create objects will gradually increase and will become scattered across the application. If class names are hard coded in such code, the complexities of managing the code will keep increasing as you add </t>
+      <t xml:space="preserve"> operator to create an object of a class. 
+This is often fine for small Java programs. But when we work on large scale enterprise class applications, the amount of code to create objects will gradually increase and will become scattered across the application. 
+If class names are hard coded in such code, the complexities of managing the code will keep increasing as you add </t>
     </r>
     <r>
       <rPr>
@@ -3200,7 +3851,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> classes to the application. To address such concerns, you can use the factory method pattern.
+      <t xml:space="preserve"> classes to the application. To address such concerns, we can use the factory method pattern.
 Eg:
 public interface Shape {  void draw(); } 
 --------------------------------------
@@ -3250,1010 +3901,666 @@
     </r>
   </si>
   <si>
-    <t>What is a design pattern?</t>
-  </si>
-  <si>
-    <t>Spring Boot enables building production-ready applications quickly and provides non-functional features:
-Embedded servers which are easy to deploy with the containers.
-It helps in monitoring the multiples components.
-It helps in configuring the components externally.</t>
-  </si>
-  <si>
-    <t>Completed - 04-01-2021</t>
-  </si>
-  <si>
-    <t>Spring supports two types of transaction management
-Programmatic transaction management − This means that you have to manage the transaction with the help of programming. That gives you extreme flexibility, but it is difficult to maintain.
-Declarative transaction management − This means you separate transaction management from the business code. You only use annotations or XML-based configuration to manage the transactions
-Declarative transaction management is preferable over programmatic transaction management though it is less flexible than programmatic transaction management.
-Which allows to control transactions through your code. But as a kind of crosscutting concern, declarative transaction management can be modularized with the AOP approach. Spring supports declarative transaction management through the Spring AOP framework.</t>
-  </si>
-  <si>
-    <t>Spring AOP uses either JDK dynamic proxies or CGLIB(Code Generation Library) to create the proxy for a given target object.
-If the target object to be proxied implements at least one interface then a JDK dynamic proxy will be used
-To force the use of CGLIB proxies set the value of the proxy-target-class attribute of the &lt;aop:config&gt; element to true:
-&lt;aop:config proxy-target-class="true"&gt;
-    &lt;!-- other beans defined here... --&gt;
-&lt;/aop:config&gt;
-To force CGLIB proxying when using the @AspectJ autoproxy support, set the 'proxy-target-class' attribute of the &lt;aop:aspectj-autoproxy&gt; element to true:
-&lt;aop:aspectj-autoproxy proxy-target-class="true"/&gt;</t>
-  </si>
-  <si>
-    <t>Queries/Remarks</t>
-  </si>
-  <si>
-    <t>Referrence URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. https://www.google.com/search?client=opera&amp;q=Do+you+know+how+to+debug+in+Eclipse+%3F&amp;sourceid=opera&amp;ie=UTF-8&amp;oe=UTF-8
-2. https://www.eclipse.org/community/eclipse_newsletter/2017/june/article1.php#:~:text=A%20Java%20program%20can%20be,Shift%20%2B%20D%2C%20J%20instead.
+    <t>https://azure.microsoft.com/en-in/topic/kubernetes-vs-docker/#:~:text=A%20fundamental%20difference%20between%20Kubernetes,production%20in%20an%20efficient%20manner.</t>
+  </si>
+  <si>
+    <t>https://www.redhat.com/en/topics/containers/what-is-kubernetes-deployment#:~:text=A%20Kubernetes%20deployment%20is%20a,which%20they%20should%20be%20updated.</t>
+  </si>
+  <si>
+    <t>What is a Pod?</t>
+  </si>
+  <si>
+    <t>1. https://cloud.google.com/kubernetes-engine/docs/concepts/pod#:~:text=Pods%20are%20the%20smallest%2C%20most,and%20share%20the%20Pod%27s%20resources.
+2.
+ https://www.educative.io/blog/kubernetes-deployments-pods-services?aid=5082902844932096&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=blog-dynamic&amp;gclid=Cj0KCQiA3NX_BRDQARIsALA3fIJw6ugv2fEndTDjQqO1QIdGjSPJ0yepfRn1db4Yd5mNIbXub58Ltk4aAsEZEALw_wcB#pods</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pods are the smallest, most basic deployable objects in Kubernetes. 
+A Pod represents a single instance of a running process in the cluster. (Or) A Pod is meant to run a single instance of the application of the cluster.
 </t>
-  </si>
-  <si>
-    <t>1. https://www.google.com/search?client=opera&amp;hs=gg5&amp;sxsrf=ALeKk02g7j97Sz0bXnBeC0FW8LrqBJsUHw%3A1609754961504&amp;ei=UenyX-iuHsWG4-EPmYi0qAo&amp;q=How+to+create+dependencies+among+projects+using+Maven%3F&amp;oq=How+to+create+dependencies+among+projects+using+Maven%3F&amp;gs_lcp=CgZwc3ktYWIQAzIECCMQJzoECAAQR1CulgVYrpYFYJ-cBWgAcAN4AIABd4gBd5IBAzAuMZgBAKABAqABAaoBB2d3cy13aXrIAQjAAQE&amp;sclient=psy-ab&amp;ved=0ahUKEwiom5_FhILuAhVFwzgGHRkEDaUQ4dUDCAw&amp;uact=5
-2. https://www.genuitec.com/docs/assembly/creating-java-maven-dependency-project/#:~:text=2.-,Add%20a%20Java%20Maven%20Dependency%20to%20the%20Utility%20Project,to%20search%20for%20a%20dependency.&amp;text=Select%20the%20dependency%2C%20and%20click%20OK.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AOP (Aspect-Oriented Programming)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>programming pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> that increases modularity by allowing the separation of the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cross-cutting concern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. 
-These cross-cutting concerns are different from the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>main business logic.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ie., </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>can add additional behavior to existing code without modification of the code itself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Limits of Pods:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-There are two benefits of aspects:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+1. A single IP address
+2. Share localhost
+3. A shared IPC space
+4. A shared network port range
+4. Shared volumes
+Pods are a great way to deploy an application, but there is some limitation to the pod resource type. A pod is a single entity, and if it fails, it cannot restart itself.</t>
+    </r>
+  </si>
+  <si>
+    <t>A Kubernetes deployment makes this process automated and repeatable.
+Deployments are entirely managed by the Kubernetes backend, and the whole update process is performed on the server side without client interaction.
+Configuration files for Kubernetes can be written using YAML or JSON.
+Using a declarative deployment pattern allows you to use a Kubernetes deployment to automate the execution of upgrade and rollback processes for a group of pods.
+Kubernetes patterns are reusable design patterns for container-based applications and services.</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/solutions/using-clusters-for-large-scale-technical-computing#:~:text=Google%20Cloud%20provides%20project-level,versions%2C%20or%20sync%20cluster%20configurations.</t>
+  </si>
+  <si>
+    <t>Google Cloud provides project-level identity and access management tools to allow controlled access to data and analytic tools. Authorized users can access the same apps, data, and clusters to ensure that everyone is on the same page without having to copy data, manage versions, or sync cluster configurations.</t>
+  </si>
+  <si>
+    <t>What is GC and how does it help distributed computing?</t>
+  </si>
+  <si>
+    <t>Kubernetes is a cluster and container management tool. It lets you deploy containers to clusters, meaning a network of virtual machines. It works with different containers, not just Docker.
+A fundamental difference between Kubernetes and Docker is that Kubernetes is meant to run across a cluster while Docker runs on a single node. Kubernetes is more extensive than Docker Swarm and is meant to coordinate clusters of nodes at scale in production in an efficient manner
+Kubernetes and Docker work together. Docker provides an open standard for packaging and distributing containerised applications. Using Docker, you can build and run containers and store and share container images. One can easily run a Docker build on a Kubernetes cluster.
+But Kubernetes itself is not a complete solution. To optimise Kubernetes in production, implement additional tools and services to manage security, governance, identity and access along with continuous integration/continuous deployment (CI/CD) workflows and other DevOps practices.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HTTP response status codes indicate whether a specific HTTP request has been successfully completed. Responses are grouped in five classes:
+Informational responses (100–199)
+Successful responses (200–299)
+Redirects (300–399)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Client errors (400–499) --Expalins below
+Server errors (500–599) --Expalins below
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-            1. The logic for each concern is now in one place instead of scattered all over the codebase. &amp;
-            2. The business modules only contain code for their primary concern. The secondary concern has been moved to the aspect.</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Client Responses (Errors):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Bad Request)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: The Server could not understand the request due to invalid syntax.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Unauthorized)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: This response means "unauthenticated". The client must authenticate itself to get the requested response.
+402 (Payment request): 
+           This status code very rarely and no standard convention exists.
+           This response code is reserved for future use. the initial aim for creating this code was using it for digital payment systems.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>403</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Forbidden)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: The client does not have access rights to the content, that is it is unauthorized, so the server is refusing to give the requested resource.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>404 (Not found)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: The server cannot find the requested resource. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>In browser:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The url is not recognized. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>In API:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The endpoint is valid but the resource itself does not exist.
+405 (Method Not Allowed): The request method is known by the server but has been disabled and cannot be used.
+  For eg: An API may forbit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DELETE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ing a resource. The two mandatory methods, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HEAD,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> must never be disabled and should not return this error code.
+406 (Not Acceptable): This response is sent when the web server, afer performinc server-driven content negotiation, doesn't find any content that conforms to the criteria by the user agent.
+407 (Proxy Authentication Required): This is similar to 401, but authentication is needed to be done by a Proxy.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>408 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Request Timeout): This response is sent on an idele connection by some servers, even without any previous request by the client. It means theat the server would like to shut down this unused connection.
+409 (Conflict): When a request conflicts with the current state of the server.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>410</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Gone):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> This response is sent when the requested content has been permanently deleted fro mtserver, with no forwarding address. clients are expected to remove their caches and links to the resource. 
+ The HTTP specification intends this status code to be used for "limited-time, promotional service". 
+  APIs shoud not feel compelled to indicate resources that have been deleted with this status code.
+411 (Length Required): Server  rejected the request because the "Content-Lenght" header field is not defined and the server reuires it.
+412 (Precondition Failed): The client has indicated preconditions in its headers which the server does not meet.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>413 (Payload Too Large):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Request entity is larger than limits defined by server, the server might close the connection or return an Retry-After header field.
+414 (URI Too Long): The URI requrested by the client is longer than the server is willing to interpret.
+415 (Unsupported Media Type): The media format of the requested data is not supported by the server, so the server is rejecting the request.
+416 (Range Not satisiable): The range specified by the Range header field in the request can't be fulfilled. It's possible that the range is outside the size of the target URI's data.
+417 (Expectation Failed): This response code means the expectation indicated by the "Expect" request header field can't be met by the server. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>418</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (I'm a teapot): The server refuses the attempt to brew coffee with a teampot.
+421 (Misdirected Request): This request was directed at a server that is not able to produce a response. This can be sent by a server that is nto configured to produce responses for the combination of scheme and authority that are included in the request URI.
+422 (Unprocessable Entity (WebDAV)): The request was well-formaed but was unable to be followed due to semantic errors.
+423 (Locked (WebDAV)): The resource that is being accessed by locked.
+424 (Failed Dependency (WebDAV)): The request failed due to failure of a prvious request.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>425</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Too Early): Indicates that the server is unwilling to risk processing a request that might be replayed.
+426 (Upgrade Required): The server refuses to perform the request using the current protocol but hmight be willing to do so after the client upgrades to a different protocol. The server sends an upgrade header in a 426 resonse to indicates the required protocol.
+428 (Precondition Required): The origin server requires the r equest to be conditional. This reponse is intended to prevent the "lost update" problem, where a client GETs a resource's state, modifies it, and PUTs it back to the server, when meanwhile a third party has modified the state on the server, leading to a coflict.
+429 (Too Many Requests): The user has sent too many request in a given amount of time ("rate limiting").
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>431 (Request Header Fields Too Large):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+             The server is unwilling to process the request because its header fields are too large.
+             The request may be resubmitted after reducing the size of the request header fields.
+451 Unavailable For Legal Reasons: The user-agent reqeusted a resource that cannot legally be provided, such as a web page cnensored by a government.
+</t>
     </r>
     <r>
       <rPr>
         <b/>
         <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Server Responses(Error):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-Benefits of AOP</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-        1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">It is implemented in pure Java.
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> There is no requirement for a special compilation process.
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> It supports only method execution Join points.
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Only run time weaving is available.
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Two types of AOP proxy is available: JDK dynamic proxy and CGLIB proxy.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Before Advice:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> An advice that executes before a join point, is called before advice. To use </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Before</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> annotation to mark an advice as Before advice.
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>After Advice:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> An advice that executes after a join point, is called after advice. To use </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@After</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> annotation to mark an advice as After advice.
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>500 (Internal Server Error)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">The server has encountered a situation it doesn't know how to handle.
+501 Not Implemented: 
+             The request method is not supported by the server and cannot be handled. 
+             The only methods that servers are required to support (and thesefore that must not return this code) are GET and HEAD.
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Around Advice:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> An advice that executes before and after of a join point, is called around advice.
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>502 Bad Gateway:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> This error response means that the server, while working as a gateway to ge a response needed to handle the request, got an invalid response.
+503 (Service Unavailable): The server is not ready to handle the request. Common causes are a server that is down for maintenance of that is overloaded. Note that together with this response, a user-friendly page explaining the problem should be sent. 
+   This responses should be used for temporary conditions and the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Retry-After</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: HTTP header should, if possible, contain the estimated time before the recovery of the service. The webmaster must also take care about the caching-related headers that are sent along with this response, as these temporary condition responses should usually not be cached. 
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>After Throwing Advice:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> An advice that executes when a join point throws an exception.
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>504 (Gateway Timeout):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> This error response is given when the server is acting as a getway and cannot get a response in time.
+505 Variant Also Negotiates: The server has an internal configuration error, the chose variant resource is configured to engage in transperanet content negotiation itself, and is therefore not a proper end point in the negotiation process.
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>After Returning Advice:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> An advice that executes when a method executes successfully.</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.tutorialspoint.com/spring/spring_bean_definition.htm</t>
-  </si>
-  <si>
-    <t>https://howtodoinjava.com/spring-core/spring-ioc-vs-di/</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The objects that form the backbone of the application and that are managed by the Spring IoC container are called </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>beans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.A bean is an object that is instantiated, assembled, and otherwise managed by a Spring IoC container. 
-These beans are created with the configuration metadata that you supply to the container.
-Spring Container Configured following Ways:
- 1. XML based configuration file.
- 2. Annotation-based configuration
- 3. Java-based configuration</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The flow depends on the object graph that is instantiated by the assembler and is made possible by object interactions being defined through abstractions. 
-The binding process is achieved through dependency injection, although some argue that the use of a service locator also provides inversion of control.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Inversion of control as a design guideline serves the following purposes:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- 1. There is a decoupling of the execution of a certain task from implementation.
- 2. Every module can focus on what it is designed for.
- 3. Modules make no assumptions about what other systems do but rely on their contracts.
- 4. Replacing modules has no side effect on other modules.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Spring Container Configured following Ways:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- 1. XML based configuration file.
- 2. Annotation-based configuration
- 3. Java-based configuration</t>
-    </r>
-  </si>
-  <si>
-    <t>1. https://www.tutorialspoint.com/spring/spring_ioc_containers.htm
-2. https://data-flair.training/blogs/spring-ioc-containers/</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">How to implement Pictorial respresentaions in Assignment?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ans:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Share the refference link URL as well as Shared cloud document to</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">How to implement Pictorial respresentaions in Assignment?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ans</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Share the refference link URL as well as Shared cloud document to</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Spring BeanFactory Container:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-          This is the simplest container providing the basic support for DI.
-          It is defined by the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>org.springframework.beans.factory.BeanFactory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> interface.
-          The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BeanFactoryAware, InitializingBean, DisposableBean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, are still present in Spring for the purpose of backward compatibility with a large number of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>third-party</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>frameworks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> that integrate with Spring.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. Spring ApplicationContext Container:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-          This container adds more enterprise-specific functionality such as the ability to resolve textual messages from a properties file and the ability to publish application events to  interested event listeners. 
-          This container is defined by the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>org.springframework.context.ApplicationContext</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> interface.</t>
-    </r>
-  </si>
-  <si>
-    <t>1. https://data-flair.training/blogs/spring-bean-scope/
-2. https://www.tutorialspoint.com/spring/spring_bean_scopes.htm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Spring Framework supports the following five scopes
-1. singleton:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-         This scopes the bean definition to a single instance per Spring IoC container (default).  (or)
-         If the Spring Bean scope is made singleton then the Spring IoC container defines only one instance of the object. That instance gets stored in the cache of singleton beans
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- @Bean
- @Scope("singleton")
- public Person personSingleton() {  return new Person(); }
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prototype:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> This scopes a single bean definition to have any number of object instances. (Or)
-            To creates a new bean instance of the object every time a request for that specific bean is made
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- @Bean
- @Scope("prototype")
- public Person personPrototype() {   return new Person(); }
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>request:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> This scopes a bean definition to an HTTP request. Only valid in the context of a web-aware Spring ApplicationContext. (Or)
-          This request will scope a bean definition to HTPP request. This is only there in context of web-aware Spring Application context. 
-          This will define the bean with the request scope under the @Scope annotation.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- @Bean
- @Scope(value = WebApplicationContext.SCOPE_REQUEST, proxyMode = ScopedProxyMode.TARGET_CLASS)
- public HelloMessageGenerator requestMessage() {     return new HelloMessageGenerator(); }
-4. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>session:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> This scopes a bean definition to an HTTP session. Only valid in the context of a web-aware Spring ApplicationContext.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-@Bean
-@Scope(value = WebApplicationContext.SCOPE_SESSION, proxyMode = ScopedProxyMode.TARGET_CLASS)
-public HelloMessageGenerator sessionMessage() { return new HelloMessageGenerator(); }
-5. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>global-session:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> This scopes a bean definition to a global HTTP session. Only valid in the context of a web-aware Spring ApplicationContext. (Or)
-               This scopes the bean definition to global HTTP session and is only valid for web-aware Application context of Spring. 
-               This type is used in portlet container applications where each portlet having their session.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- @Bean
- @Scope(value = WebApplicationContext.SCOPE_GLOBAL_SESSION, proxyMode = ScopedProxyMode.TARGET_CLASS)
- public HelloMessageGenerator globalSessionMessage() {  return new HelloMessageGenerator(); }</t>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>507 Insufficient Storage(WebDAV)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: The method could not be performed on the resource because the server is unable to store the representations needed to successfully complete the request.
+508 Loop Detected(WebDAV): The server detected an infinite loop while processing the request.
+510 Not Extended: Further extenstions to the request are required for the server to fulfil it.
+511 Network Authentication Required: The 511 status code indicates that the client needs to authenticate to gain network access.</t>
     </r>
   </si>
 </sst>
@@ -4261,7 +4568,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4373,12 +4680,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -4581,7 +4882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4701,10 +5002,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4712,12 +5010,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4746,17 +5038,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4767,12 +5059,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4798,10 +5084,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4812,6 +5098,25 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6046,14 +6351,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B5:K96" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
-  <autoFilter ref="B5:K96">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Completed - 04-01-2021"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B5:K97" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="B5:K97"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Sr.No" dataDxfId="32"/>
     <tableColumn id="2" name="Subject" dataDxfId="31" dataCellStyle="Hyperlink"/>
@@ -6071,7 +6370,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B5:D43" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B5:D44" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
   <tableColumns count="3">
     <tableColumn id="1" name="Sr.No." dataDxfId="18"/>
     <tableColumn id="2" name="Questions / Assignments" dataDxfId="17"/>
@@ -6095,8 +6394,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B5:D42" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="B5:D42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B5:D43" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="B5:D43"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Sr.No." dataDxfId="2"/>
     <tableColumn id="2" name="Questions / Assignments" dataDxfId="1"/>
@@ -6371,8 +6670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:G10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6386,51 +6685,51 @@
   <sheetData>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="53">
+      <c r="F7" s="50">
         <v>44189</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="9">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>115</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>116</v>
       </c>
       <c r="F8" s="8">
         <v>44189</v>
       </c>
       <c r="G8" s="10">
-        <v>44200</v>
+        <v>44201</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
@@ -6458,11 +6757,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:K96"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6470,7 +6769,7 @@
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
@@ -6480,46 +6779,49 @@
     <col min="11" max="11" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="58" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="74"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="K5" s="75" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
         <v>1</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="53" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -6531,19 +6833,19 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-    </row>
-    <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="23">
         <v>2</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="53" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -6555,19 +6857,19 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="23">
         <v>3</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="53" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -6579,19 +6881,19 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="23">
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -6603,19 +6905,19 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="23">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -6626,18 +6928,22 @@
         <v>9</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="7"/>
+      <c r="I10" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="68" t="s">
+        <v>183</v>
+      </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="23">
         <v>6</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="41" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -6648,19 +6954,23 @@
         <v>9</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="7"/>
+      <c r="I11" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" s="68" t="s">
+        <v>184</v>
+      </c>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="23">
         <v>7</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>59</v>
+      <c r="D12" s="41" t="s">
+        <v>191</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -6670,11 +6980,15 @@
         <v>9</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>189</v>
+      </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="23">
         <v>8</v>
       </c>
@@ -6682,7 +6996,7 @@
         <v>58</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -6696,7 +7010,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="23">
         <v>9</v>
       </c>
@@ -6704,7 +7018,7 @@
         <v>58</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -6718,15 +7032,15 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="23">
         <v>10</v>
       </c>
       <c r="C15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
@@ -6740,15 +7054,15 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="23">
         <v>11</v>
       </c>
       <c r="C16" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -6759,8 +7073,8 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="73" t="s">
-        <v>147</v>
+      <c r="J16" s="68" t="s">
+        <v>145</v>
       </c>
       <c r="K16" s="7"/>
     </row>
@@ -6772,7 +7086,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
@@ -6791,10 +7105,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
@@ -6808,15 +7122,15 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
         <v>14</v>
       </c>
       <c r="C19" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="41" t="s">
         <v>69</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
@@ -6827,20 +7141,20 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
         <v>15</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
@@ -6851,20 +7165,20 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="23">
         <v>16</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
@@ -6875,20 +7189,20 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="23">
         <v>17</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
@@ -6899,20 +7213,20 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="23">
         <v>18</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
@@ -6923,20 +7237,20 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="23">
         <v>19</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
@@ -6947,7 +7261,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -6960,7 +7274,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
@@ -6982,7 +7296,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
@@ -7004,7 +7318,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
@@ -7026,7 +7340,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
@@ -7048,7 +7362,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
@@ -7070,7 +7384,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -7092,7 +7406,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
@@ -7114,7 +7428,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>8</v>
@@ -7136,7 +7450,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
@@ -7158,7 +7472,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
@@ -7180,7 +7494,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
@@ -7202,7 +7516,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
@@ -7216,15 +7530,15 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="23">
         <v>32</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="42" t="s">
-        <v>88</v>
+      <c r="D37" s="41" t="s">
+        <v>87</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
@@ -7235,7 +7549,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -7248,7 +7562,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>8</v>
@@ -7262,15 +7576,15 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="23">
         <v>34</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="42" t="s">
-        <v>90</v>
+      <c r="D39" s="41" t="s">
+        <v>89</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>8</v>
@@ -7281,7 +7595,7 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -7294,7 +7608,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>8</v>
@@ -7316,7 +7630,7 @@
         <v>19</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>8</v>
@@ -7338,7 +7652,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>8</v>
@@ -7360,7 +7674,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
@@ -7374,32 +7688,32 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="2:11" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="68">
+    <row r="44" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+      <c r="B44" s="63">
         <v>39</v>
       </c>
       <c r="C44" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="69" t="s">
+      <c r="D44" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="69"/>
-      <c r="G44" s="70" t="s">
+      <c r="F44" s="64"/>
+      <c r="G44" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="69"/>
+      <c r="H44" s="64"/>
       <c r="I44" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="J44" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="K44" s="72" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="J44" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="K44" s="67" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
@@ -7410,13 +7724,13 @@
         <v>10</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="7"/>
-      <c r="G45" s="54">
+      <c r="G45" s="51">
         <v>44190</v>
       </c>
       <c r="H45" s="7"/>
@@ -7432,7 +7746,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>8</v>
@@ -7454,7 +7768,7 @@
         <v>10</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>8</v>
@@ -7476,7 +7790,7 @@
         <v>10</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
@@ -7498,7 +7812,7 @@
         <v>10</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>8</v>
@@ -7512,15 +7826,15 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="23">
         <v>45</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="42" t="s">
-        <v>101</v>
+      <c r="D50" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
@@ -7531,7 +7845,7 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -7544,7 +7858,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>8</v>
@@ -7558,15 +7872,15 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="23">
         <v>47</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="56" t="s">
-        <v>103</v>
+      <c r="D52" s="53" t="s">
+        <v>102</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>8</v>
@@ -7577,20 +7891,20 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="23">
         <v>48</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="56" t="s">
-        <v>104</v>
+      <c r="D53" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>8</v>
@@ -7601,20 +7915,20 @@
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="23">
         <v>49</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="56" t="s">
-        <v>105</v>
+      <c r="D54" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>8</v>
@@ -7625,20 +7939,20 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="23">
         <v>50</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="56" t="s">
-        <v>106</v>
+      <c r="D55" s="53" t="s">
+        <v>105</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>8</v>
@@ -7649,7 +7963,7 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -7698,14 +8012,14 @@
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="23">
         <v>53</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="42" t="s">
+      <c r="D58" s="41" t="s">
         <v>12</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -7717,7 +8031,7 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -7744,14 +8058,14 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="23">
         <v>55</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="42" t="s">
+      <c r="D60" s="41" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -7763,7 +8077,7 @@
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -7791,41 +8105,41 @@
       <c r="K61" s="7"/>
     </row>
     <row r="62" spans="2:11" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="68">
+      <c r="B62" s="63">
         <v>57</v>
       </c>
       <c r="C62" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="36" t="s">
+      <c r="D62" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="44" t="s">
+      <c r="E62" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="44"/>
-      <c r="G62" s="71" t="s">
+      <c r="F62" s="43"/>
+      <c r="G62" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="H62" s="44"/>
+      <c r="H62" s="43"/>
       <c r="I62" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="J62" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="K62" s="72" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="J62" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="K62" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="23">
         <v>58</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="D63" s="53" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -7837,7 +8151,7 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -7982,7 +8296,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>8</v>
@@ -7996,14 +8310,14 @@
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="23">
         <v>66</v>
       </c>
       <c r="C71" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="42" t="s">
+      <c r="D71" s="41" t="s">
         <v>26</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -8015,19 +8329,19 @@
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
     </row>
-    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="23">
         <v>67</v>
       </c>
       <c r="C72" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="42" t="s">
+      <c r="D72" s="41" t="s">
         <v>27</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -8039,7 +8353,7 @@
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -8051,7 +8365,7 @@
       <c r="C73" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -8062,8 +8376,12 @@
         <v>9</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="7"/>
+      <c r="I73" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J73" s="68" t="s">
+        <v>179</v>
+      </c>
       <c r="K73" s="7"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
@@ -8139,7 +8457,7 @@
       <c r="C77" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="D77" s="41" t="s">
         <v>34</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -8151,10 +8469,10 @@
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K77" s="7"/>
     </row>
@@ -8165,7 +8483,7 @@
       <c r="C78" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="42" t="s">
+      <c r="D78" s="41" t="s">
         <v>35</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -8177,10 +8495,10 @@
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="J78" s="74" t="s">
-        <v>170</v>
+        <v>157</v>
+      </c>
+      <c r="J78" s="69" t="s">
+        <v>165</v>
       </c>
       <c r="K78" s="7"/>
     </row>
@@ -8191,7 +8509,7 @@
       <c r="C79" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="42" t="s">
+      <c r="D79" s="41" t="s">
         <v>36</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -8203,7 +8521,7 @@
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -8215,7 +8533,7 @@
       <c r="C80" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="42" t="s">
+      <c r="D80" s="41" t="s">
         <v>37</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -8227,10 +8545,10 @@
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="J80" s="74" t="s">
-        <v>169</v>
+        <v>157</v>
+      </c>
+      <c r="J80" s="69" t="s">
+        <v>164</v>
       </c>
       <c r="K80" s="7"/>
     </row>
@@ -8241,7 +8559,7 @@
       <c r="C81" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="42" t="s">
+      <c r="D81" s="41" t="s">
         <v>38</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -8253,10 +8571,10 @@
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K81" s="7"/>
     </row>
@@ -8465,7 +8783,7 @@
       <c r="C91" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="42" t="s">
+      <c r="D91" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -8477,7 +8795,7 @@
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -8489,7 +8807,7 @@
       <c r="C92" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="42" t="s">
+      <c r="D92" s="41" t="s">
         <v>49</v>
       </c>
       <c r="E92" s="18" t="s">
@@ -8501,90 +8819,112 @@
       </c>
       <c r="H92" s="18"/>
       <c r="I92" s="21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
-    <row r="93" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="24">
         <v>88</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D93" s="60" t="s">
-        <v>137</v>
+        <v>68</v>
+      </c>
+      <c r="D93" s="57" t="s">
+        <v>135</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
       <c r="G93" s="19"/>
       <c r="H93" s="18"/>
       <c r="I93" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
     </row>
-    <row r="94" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="24">
         <v>89</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="60" t="s">
-        <v>123</v>
+      <c r="D94" s="57" t="s">
+        <v>121</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="18"/>
       <c r="G94" s="19"/>
       <c r="H94" s="18"/>
       <c r="I94" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
-    <row r="95" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="24">
         <v>90</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D95" s="60" t="s">
-        <v>141</v>
+        <v>68</v>
+      </c>
+      <c r="D95" s="57" t="s">
+        <v>139</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
       <c r="G95" s="19"/>
       <c r="H95" s="18"/>
       <c r="I95" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
     </row>
-    <row r="96" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="24">
         <v>91</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D96" s="60" t="s">
-        <v>143</v>
+        <v>68</v>
+      </c>
+      <c r="D96" s="57" t="s">
+        <v>141</v>
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
       <c r="G96" s="19"/>
       <c r="H96" s="18"/>
       <c r="I96" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="J96" s="77"/>
-      <c r="K96" s="77"/>
+        <v>138</v>
+      </c>
+      <c r="J96" s="72"/>
+      <c r="K96" s="72"/>
+    </row>
+    <row r="97" spans="2:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="B97" s="23">
+        <v>92</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J97" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="K97" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8597,7 +8937,7 @@
     <hyperlink ref="D53" location="Git_Maven!D10" display="What are the main Maven commands that you are aware of?"/>
     <hyperlink ref="D54" location="Git_Maven!D16" display="How do you compile a project using Maven Framework?"/>
     <hyperlink ref="D55" location="Git_Maven!D17" display="What is the general outcome of Maven Clean Install ?"/>
-    <hyperlink ref="D63" location="Git_Maven!D19" display="What is CI/CD?"/>
+    <hyperlink ref="D63" location="Git_Maven!D21" display="What is CI/CD?"/>
     <hyperlink ref="D20" location="Git_Maven!D8" display="Git Merge"/>
     <hyperlink ref="D93" location="Git_Maven!D9" display="GIT Rebase"/>
     <hyperlink ref="D94" location="Git_Maven!D22" display="What is POM"/>
@@ -8624,28 +8964,39 @@
     <hyperlink ref="D80" location="Spring!C32" display="What are Spring Beans?"/>
     <hyperlink ref="D77" location="Spring!C29" display="What are the types of IoC?"/>
     <hyperlink ref="D81" location="Spring!C33" display="What are various bean scopes?"/>
+    <hyperlink ref="D73" location="General!C41" display="When do you use abstract?"/>
+    <hyperlink ref="J73" r:id="rId4"/>
+    <hyperlink ref="D62" location="Git_Maven!D20" display="How to create dependencies among projects using Maven?"/>
+    <hyperlink ref="D44" location="General!C21" display="Do you know how to debug in Eclipse ?"/>
+    <hyperlink ref="J10" r:id="rId5" location=":~:text=A%20fundamental%20difference%20between%20Kubernetes,production%20in%20an%20efficient%20manner."/>
+    <hyperlink ref="J11" r:id="rId6" location=":~:text=A%20Kubernetes%20deployment%20is%20a,which%20they%20should%20be%20updated."/>
+    <hyperlink ref="D10" location="General!C7" display="How does kubernetes do?"/>
+    <hyperlink ref="D11" location="General!C8" display="How does kubernetes help application deployment / support"/>
+    <hyperlink ref="D97" location="General!C43" display="What is a Pod?"/>
+    <hyperlink ref="J12" r:id="rId7" location=":~:text=Google%20Cloud%20provides%20project-level,versions%2C%20or%20sync%20cluster%20configurations."/>
+    <hyperlink ref="D12" location="General!C9" display="What is GC and how does it help distributed computing?"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="154.7109375" style="4" customWidth="1"/>
@@ -8653,29 +9004,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
-        <v>111</v>
+      <c r="A1" s="73" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
+      <c r="A2" s="73"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="73"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
+      <c r="A4" s="73"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -8687,7 +9038,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="300" x14ac:dyDescent="0.25">
@@ -8699,7 +9050,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -8711,7 +9062,7 @@
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8720,7 +9071,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -8730,7 +9081,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -8740,7 +9091,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8749,7 +9100,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -8759,7 +9110,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -8769,7 +9120,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="5"/>
     </row>
@@ -8778,7 +9129,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="5"/>
     </row>
@@ -8787,7 +9138,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -8796,7 +9147,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="5"/>
     </row>
@@ -8805,7 +9156,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -8814,7 +9165,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -8823,7 +9174,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="16"/>
     </row>
@@ -8832,7 +9183,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="16"/>
     </row>
@@ -8841,7 +9192,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="16"/>
     </row>
@@ -8906,8 +9257,8 @@
       <c r="C29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="67" t="s">
-        <v>176</v>
+      <c r="D29" s="62" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="165" x14ac:dyDescent="0.25">
@@ -8917,8 +9268,8 @@
       <c r="C30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="67" t="s">
-        <v>172</v>
+      <c r="D30" s="62" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="240" x14ac:dyDescent="0.25">
@@ -8928,8 +9279,8 @@
       <c r="C31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="67" t="s">
-        <v>168</v>
+      <c r="D31" s="62" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="105" x14ac:dyDescent="0.25">
@@ -8940,7 +9291,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -8951,17 +9302,19 @@
         <v>38</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="195" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
         <v>29</v>
       </c>
       <c r="C34" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="9">
@@ -9034,7 +9387,7 @@
         <v>48</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="120" x14ac:dyDescent="0.25">
@@ -9044,8 +9397,17 @@
       <c r="C43" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="67" t="s">
-        <v>162</v>
+      <c r="D43" s="62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="62" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -9069,8 +9431,8 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9083,8 +9445,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
-        <v>111</v>
+      <c r="A1" s="73" t="s">
+        <v>110</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -9092,21 +9454,21 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9115,7 +9477,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>0</v>
@@ -9124,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -9132,14 +9494,14 @@
       <c r="B6" s="40">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>127</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -9147,14 +9509,14 @@
       <c r="B7" s="40">
         <v>2</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>120</v>
+      <c r="C7" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>128</v>
+        <v>69</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -9162,14 +9524,14 @@
       <c r="B8" s="40">
         <v>3</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>120</v>
+      <c r="C8" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>139</v>
+        <v>70</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -9178,83 +9540,83 @@
         <v>4</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>138</v>
+        <v>132</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
       <c r="B10" s="40">
         <v>5</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>120</v>
+      <c r="C10" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>135</v>
+        <v>71</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
       <c r="B11" s="40">
         <v>6</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>120</v>
+      <c r="C11" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>144</v>
+        <v>72</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B12" s="40">
         <v>7</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>120</v>
+      <c r="C12" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
       <c r="B13" s="40">
         <v>8</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>120</v>
+      <c r="C13" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>145</v>
+        <v>73</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B14" s="40">
         <v>9</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>120</v>
+      <c r="C14" s="42" t="s">
+        <v>118</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>148</v>
+        <v>74</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
@@ -9262,13 +9624,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>149</v>
+        <v>140</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="140.25" x14ac:dyDescent="0.25">
@@ -9279,10 +9641,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>150</v>
+        <v>102</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="293.25" x14ac:dyDescent="0.25">
@@ -9293,10 +9655,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>126</v>
+        <v>103</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -9307,10 +9669,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>121</v>
+        <v>104</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -9321,23 +9683,25 @@
         <v>16</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="102" x14ac:dyDescent="0.25">
       <c r="B20" s="40">
         <v>14</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="46"/>
+      <c r="E20" s="44" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="21" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40">
@@ -9349,8 +9713,8 @@
       <c r="D21" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="47" t="s">
-        <v>125</v>
+      <c r="E21" s="44" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -9360,11 +9724,11 @@
       <c r="C22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>124</v>
+      <c r="D22" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -9385,11 +9749,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9401,27 +9765,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
-        <v>111</v>
+      <c r="A1" s="73" t="s">
+        <v>110</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9429,13 +9793,13 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="216.75" x14ac:dyDescent="0.25">
@@ -9447,10 +9811,10 @@
         <v>52</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="28">
         <v>2</v>
@@ -9458,32 +9822,38 @@
       <c r="C7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="32"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
       <c r="B8" s="28">
         <v>3</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B9" s="28">
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="34"/>
+        <v>191</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="28">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="34"/>
     </row>
@@ -9492,7 +9862,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="34"/>
     </row>
@@ -9501,7 +9871,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="34"/>
     </row>
@@ -9510,7 +9880,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="34"/>
     </row>
@@ -9519,7 +9889,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="34"/>
     </row>
@@ -9528,7 +9898,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="34"/>
     </row>
@@ -9537,10 +9907,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
@@ -9548,10 +9918,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>155</v>
+        <v>89</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -9559,7 +9929,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="34"/>
     </row>
@@ -9567,8 +9937,8 @@
       <c r="B19" s="28">
         <v>14</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>93</v>
+      <c r="C19" s="58" t="s">
+        <v>92</v>
       </c>
       <c r="D19" s="34"/>
     </row>
@@ -9576,26 +9946,28 @@
       <c r="B20" s="28">
         <v>15</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="40">
+        <v>16</v>
+      </c>
+      <c r="C21" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="34"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="64">
-        <v>16</v>
-      </c>
-      <c r="C21" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="60" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="22" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B22" s="28">
         <v>17</v>
       </c>
-      <c r="C22" s="61" t="s">
-        <v>96</v>
+      <c r="C22" s="58" t="s">
+        <v>95</v>
       </c>
       <c r="D22" s="34"/>
     </row>
@@ -9603,8 +9975,8 @@
       <c r="B23" s="28">
         <v>18</v>
       </c>
-      <c r="C23" s="61" t="s">
-        <v>97</v>
+      <c r="C23" s="58" t="s">
+        <v>96</v>
       </c>
       <c r="D23" s="34"/>
     </row>
@@ -9612,8 +9984,8 @@
       <c r="B24" s="28">
         <v>19</v>
       </c>
-      <c r="C24" s="61" t="s">
-        <v>98</v>
+      <c r="C24" s="58" t="s">
+        <v>97</v>
       </c>
       <c r="D24" s="34"/>
     </row>
@@ -9621,8 +9993,8 @@
       <c r="B25" s="28">
         <v>20</v>
       </c>
-      <c r="C25" s="61" t="s">
-        <v>99</v>
+      <c r="C25" s="58" t="s">
+        <v>98</v>
       </c>
       <c r="D25" s="34"/>
     </row>
@@ -9630,8 +10002,8 @@
       <c r="B26" s="28">
         <v>21</v>
       </c>
-      <c r="C26" s="61" t="s">
-        <v>100</v>
+      <c r="C26" s="58" t="s">
+        <v>99</v>
       </c>
       <c r="D26" s="34"/>
     </row>
@@ -9639,19 +10011,19 @@
       <c r="B27" s="28">
         <v>22</v>
       </c>
-      <c r="C27" s="61" t="s">
-        <v>101</v>
+      <c r="C27" s="58" t="s">
+        <v>100</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="28">
         <v>23</v>
       </c>
-      <c r="C28" s="62" t="s">
-        <v>102</v>
+      <c r="C28" s="59" t="s">
+        <v>101</v>
       </c>
       <c r="D28" s="35"/>
     </row>
@@ -9659,7 +10031,7 @@
       <c r="B29" s="28">
         <v>24</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="34"/>
@@ -9668,18 +10040,18 @@
       <c r="B30" s="28">
         <v>25</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="63" t="s">
-        <v>153</v>
+      <c r="D30" s="60" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="28">
         <v>26</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="58" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="34"/>
@@ -9688,18 +10060,18 @@
       <c r="B32" s="28">
         <v>27</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="63" t="s">
-        <v>152</v>
+      <c r="D32" s="60" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="28">
         <v>28</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="35"/>
@@ -9708,7 +10080,7 @@
       <c r="B34" s="28">
         <v>29</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="58" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="34"/>
@@ -9717,7 +10089,7 @@
       <c r="B35" s="28">
         <v>30</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="58" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="34"/>
@@ -9726,7 +10098,7 @@
       <c r="B36" s="28">
         <v>31</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="58" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="34"/>
@@ -9735,7 +10107,7 @@
       <c r="B37" s="28">
         <v>32</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="58" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="34"/>
@@ -9744,50 +10116,63 @@
       <c r="B38" s="28">
         <v>33</v>
       </c>
-      <c r="C38" s="61" t="s">
-        <v>159</v>
+      <c r="C38" s="58" t="s">
+        <v>155</v>
       </c>
       <c r="D38" s="34"/>
     </row>
-    <row r="39" spans="2:4" ht="383.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" ht="408.75" x14ac:dyDescent="0.25">
       <c r="B39" s="28">
         <v>34</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="63" t="s">
-        <v>158</v>
+      <c r="D39" s="60" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="28">
         <v>35</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="63" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="77.25" x14ac:dyDescent="0.25">
       <c r="B41" s="28">
         <v>36</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="35"/>
+      <c r="D41" s="61" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="28">
         <v>37</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="59" t="s">
         <v>47</v>
       </c>
       <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="2:4" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="77">
+        <v>38</v>
+      </c>
+      <c r="C43" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="79" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Infopine_SpringBoot_Assignment_V1.0_24Dec2020.xlsx
+++ b/Infopine_SpringBoot_Assignment_V1.0_24Dec2020.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sathyas\Project_Discussion\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sathyas\Project_Discussion\Doc\Spring_Assignmnt_Docs_24Dec2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="VersionControl" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="200">
   <si>
     <t>Subject</t>
   </si>
@@ -1877,14 +1877,6 @@
   </si>
   <si>
     <t>https://cimmesb.cimm2.com</t>
-  </si>
-  <si>
-    <t>This process is known as forking.
-Creating a “fork” is producing a personal copy of someone else’s project. 
-Forks act as a sort of bridge between the original repository and your personal copy. You can submit Pull Requests to help make other people’s projects better by offering your changes up to the original project.
---------------------------------------------------------------------------
-A fork is a copy of a repository that allows you to freely experiment with changes without affecting the original project.
-The fork acts as a bridge between the original repository and (local/requester) personal copy where can contribute back to the original project using Pull Requests.</t>
   </si>
   <si>
     <r>
@@ -3970,7 +3962,106 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">The Google Cloud Console provides a web-based, graphical user interface that you can use to manage your Google Cloud projects and resources
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cloud Console:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> To create new project or using existing one, and use the resources we can create the context of the project.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Command-Line Interface: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">In Google clould for command line operations done by "gcloud" terminal tool. It will helps to manage development workflow as well as Google cloud resourcess too.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cloud SDK:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> The SDK includes "gcloud" tool, it will install on local machine, and execute the command to manage Google cloud resources.
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cloud Shell:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> This is purely browser based console, no need to install on local machine.
+             A temporary Compute Engine virtual machine instance.
+             A built-in code editor.
+             5 GB of persistent disk storage.
+             Pre-installed Cloud SDK and other tools.
+             Language support for Java, Go, Python, Node.js, PHP, Ruby and .NET.
+             Web preview functionality.
+             Built-in authorization for access to Cloud Console projects and resources.</t>
+    </r>
+  </si>
+  <si>
+    <t>Completed - 07-01-2021</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/docs/overview</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">HTTP response status codes indicate whether a specific HTTP request has been successfully completed. Responses are grouped in five classes:
+---------------------------------------------------------------------------------------------------------------------------
 Informational responses (100–199)
 Successful responses (200–299)
 Redirects (300–399)
@@ -3984,9 +4075,9 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Client errors (400–499) --Expalins below
+      <t>Client errors (400–499) --Expalins below
 Server errors (500–599) --Expalins below
-</t>
+---------------------------------------------------------------------------------------------------------------------------</t>
     </r>
     <r>
       <rPr>
@@ -4413,6 +4504,7 @@
              The server is unwilling to process the request because its header fields are too large.
              The request may be resubmitted after reducing the size of the request header fields.
 451 Unavailable For Legal Reasons: The user-agent reqeusted a resource that cannot legally be provided, such as a web page cnensored by a government.
+-------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------
 </t>
     </r>
     <r>
@@ -4562,6 +4654,215 @@
 510 Not Extended: Further extenstions to the request are required for the server to fulfil it.
 511 Network Authentication Required: The 511 status code indicates that the client needs to authenticate to gain network access.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The role of the Kubernetes garbage collector is to delete certain objects that once had an owner, but no longer have an owner.
+In Kubernete, if trying to delete an object, can specify whether the object's dependents are also deleted automatically. If deleting the dependents automatically is called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cascading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>deletion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.
+(If missing to specify to delete the deletion object's dependents, the dependents are said to be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>orphaned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">).
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Foreground cascading deletion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: The root object first enters a "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>deletion in progress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">" state.
+      In the "deletion in progress" state, the following things are true:
+          The object is still visible via the REST API
+           The object's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>deletionTimestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is set
+           The object's metadata.finalizers contains the value "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>foregroundDeletion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">".
+      Once done above ("deletion in progress" has been settled), garbage collector will start to delete the dependents of the object, and finally will delete the owner object
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Background cascading deletion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Kubernetes deletes the owner object immediately and the garbage collector then deletes the dependents in the background</t>
+    </r>
+  </si>
+  <si>
+    <t>https://kubernetes.io/docs/concepts/workloads/controllers/garbage-collection/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Batch Scripts:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Batch scripts are stored in simple text files containing lines with commands that get executed in sequence, one after the other. These files have the special extension BAT or CMD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Shell Scripts:</t>
+    </r>
+  </si>
+  <si>
+    <t>This process is known as forking.
+Creating a “fork” is producing a personal copy of someone else's project. 
+Forks act as a sort of bridge between the original repository and your personal copy. You can submit Pull Requests to help make other people’s projects better by offering your changes up to the original project.
+--------------------------------------------------------------------------
+A fork is a copy of a repository that allows you to freely experiment with changes without affecting the original project.
+The fork acts as a bridge between the original repository and (local/requester) personal copy where can contribute back to the original project using Pull Requests.</t>
   </si>
 </sst>
 </file>
@@ -4882,7 +5183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5096,9 +5397,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5117,6 +5415,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6759,9 +7069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6780,7 +7090,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
+      <c r="A1" s="73"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="54" t="s">
@@ -6808,10 +7118,10 @@
         <v>109</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K5" s="70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6905,7 +7215,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -6929,10 +7239,10 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7"/>
     </row>
@@ -6955,10 +7265,10 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7"/>
     </row>
@@ -6970,7 +7280,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -6981,10 +7291,10 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J12" s="68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K12" s="7"/>
     </row>
@@ -6995,7 +7305,7 @@
       <c r="C13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="41" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -7006,18 +7316,22 @@
         <v>9</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="7"/>
+      <c r="I13" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>194</v>
+      </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="23">
         <v>9</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="41" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -7028,8 +7342,12 @@
         <v>9</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="7"/>
+      <c r="I14" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>197</v>
+      </c>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7549,7 +7867,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -7595,7 +7913,7 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -7695,7 +8013,7 @@
       <c r="C44" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="75" t="s">
+      <c r="D44" s="74" t="s">
         <v>94</v>
       </c>
       <c r="E44" s="64" t="s">
@@ -7707,13 +8025,13 @@
       </c>
       <c r="H44" s="64"/>
       <c r="I44" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K44" s="67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
@@ -8111,7 +8429,7 @@
       <c r="C62" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="75" t="s">
+      <c r="D62" s="74" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="43" t="s">
@@ -8123,13 +8441,13 @@
       </c>
       <c r="H62" s="43"/>
       <c r="I62" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J62" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K62" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
@@ -8249,7 +8567,7 @@
         <v>63</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>24</v>
@@ -8296,7 +8614,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>8</v>
@@ -8329,7 +8647,7 @@
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -8353,7 +8671,7 @@
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -8377,10 +8695,10 @@
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J73" s="68" t="s">
         <v>178</v>
-      </c>
-      <c r="J73" s="68" t="s">
-        <v>179</v>
       </c>
       <c r="K73" s="7"/>
     </row>
@@ -8469,10 +8787,10 @@
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K77" s="7"/>
     </row>
@@ -8495,10 +8813,10 @@
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J78" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K78" s="7"/>
     </row>
@@ -8521,7 +8839,7 @@
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -8545,10 +8863,10 @@
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J80" s="69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K80" s="7"/>
     </row>
@@ -8571,10 +8889,10 @@
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K81" s="7"/>
     </row>
@@ -8795,7 +9113,7 @@
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -8819,7 +9137,7 @@
       </c>
       <c r="H92" s="18"/>
       <c r="I92" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -8912,17 +9230,17 @@
         <v>55</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="2"/>
       <c r="H97" s="1"/>
       <c r="I97" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="J97" s="80" t="s">
-        <v>186</v>
+        <v>177</v>
+      </c>
+      <c r="J97" s="79" t="s">
+        <v>185</v>
       </c>
       <c r="K97" s="7"/>
     </row>
@@ -8975,12 +9293,16 @@
     <hyperlink ref="D97" location="General!C43" display="What is a Pod?"/>
     <hyperlink ref="J12" r:id="rId7" location=":~:text=Google%20Cloud%20provides%20project-level,versions%2C%20or%20sync%20cluster%20configurations."/>
     <hyperlink ref="D12" location="General!C9" display="What is GC and how does it help distributed computing?"/>
+    <hyperlink ref="J13" r:id="rId8"/>
+    <hyperlink ref="D13" location="General!C10" display="What do you know about GCP?"/>
+    <hyperlink ref="D14" location="General!C11" display="How do Kubernetes sit on GC ?"/>
+    <hyperlink ref="J14" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+  <drawing r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8990,8 +9312,8 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9004,18 +9326,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
+      <c r="A2" s="80"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
+      <c r="A3" s="80"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
+      <c r="A4" s="80"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -9062,7 +9384,7 @@
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -9258,7 +9580,7 @@
         <v>34</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="165" x14ac:dyDescent="0.25">
@@ -9269,7 +9591,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="240" x14ac:dyDescent="0.25">
@@ -9280,7 +9602,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="105" x14ac:dyDescent="0.25">
@@ -9291,7 +9613,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9302,7 +9624,7 @@
         <v>38</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="195" x14ac:dyDescent="0.25">
@@ -9313,7 +9635,7 @@
         <v>39</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -9387,7 +9709,7 @@
         <v>48</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="120" x14ac:dyDescent="0.25">
@@ -9398,16 +9720,16 @@
         <v>49</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B44" s="16"/>
       <c r="C44" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="62" t="s">
         <v>174</v>
-      </c>
-      <c r="D44" s="62" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -9431,8 +9753,8 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9445,7 +9767,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>110</v>
       </c>
       <c r="B1" s="4"/>
@@ -9454,21 +9776,21 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
+      <c r="A2" s="80"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9616,7 +9938,7 @@
         <v>74</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
@@ -9630,7 +9952,7 @@
         <v>140</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="140.25" x14ac:dyDescent="0.25">
@@ -9644,7 +9966,7 @@
         <v>102</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="293.25" x14ac:dyDescent="0.25">
@@ -9700,7 +10022,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9751,9 +10073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9765,7 +10087,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="80" t="s">
         <v>110</v>
       </c>
       <c r="B1" s="4"/>
@@ -9773,19 +10095,19 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
+      <c r="A2" s="80"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9811,7 +10133,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
@@ -9823,7 +10145,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
@@ -9834,7 +10156,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -9842,56 +10164,62 @@
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="166.5" x14ac:dyDescent="0.25">
       <c r="B10" s="28">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="34"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
       <c r="B11" s="28">
         <v>6</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="32" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="28">
+      <c r="B12" s="81">
         <v>7</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="83"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="28">
+      <c r="B13" s="81">
         <v>8</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="34"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="83"/>
+    </row>
+    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B14" s="28">
         <v>9</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="60" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="28">
@@ -9910,7 +10238,7 @@
         <v>87</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
@@ -9921,7 +10249,7 @@
         <v>89</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -9955,11 +10283,11 @@
       <c r="B21" s="40">
         <v>16</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="75" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -10015,7 +10343,7 @@
         <v>100</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -10044,7 +10372,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -10064,7 +10392,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -10117,7 +10445,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D38" s="34"/>
     </row>
@@ -10129,7 +10457,7 @@
         <v>26</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -10140,7 +10468,7 @@
         <v>27</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="77.25" x14ac:dyDescent="0.25">
@@ -10151,7 +10479,7 @@
         <v>28</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -10164,14 +10492,14 @@
       <c r="D42" s="35"/>
     </row>
     <row r="43" spans="2:4" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="77">
+      <c r="B43" s="76">
         <v>38</v>
       </c>
-      <c r="C43" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="D43" s="79" t="s">
-        <v>187</v>
+      <c r="C43" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="78" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Infopine_SpringBoot_Assignment_V1.0_24Dec2020.xlsx
+++ b/Infopine_SpringBoot_Assignment_V1.0_24Dec2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VersionControl" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="General" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Index!$C$5:$I$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Index!$C$5:$I$99</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Spring!$A$1:$F$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="208">
   <si>
     <t>Subject</t>
   </si>
@@ -3949,9 +3949,6 @@
     <t>https://cloud.google.com/solutions/using-clusters-for-large-scale-technical-computing#:~:text=Google%20Cloud%20provides%20project-level,versions%2C%20or%20sync%20cluster%20configurations.</t>
   </si>
   <si>
-    <t>Google Cloud provides project-level identity and access management tools to allow controlled access to data and analytic tools. Authorized users can access the same apps, data, and clusters to ensure that everyone is on the same page without having to copy data, manage versions, or sync cluster configurations.</t>
-  </si>
-  <si>
     <t>What is GC and how does it help distributed computing?</t>
   </si>
   <si>
@@ -4864,12 +4861,58 @@
 A fork is a copy of a repository that allows you to freely experiment with changes without affecting the original project.
 The fork acts as a bridge between the original repository and (local/requester) personal copy where can contribute back to the original project using Pull Requests.</t>
   </si>
+  <si>
+    <t xml:space="preserve"> @Inject</t>
+  </si>
+  <si>
+    <t>Google Cloud provides project-level identity and access management tools to allow controlled access to data and analytic tools. 
+Authorized users can access the same apps, data, and clusters to ensure that everyone is on the same page without having to copy data, manage versions, or sync cluster configurations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Resource</t>
+  </si>
+  <si>
+    <t>Completed - 18-01-2021</t>
+  </si>
+  <si>
+    <t>This annotation provide classes with a declarative way to resolve.
+  Its belongs to "org.springframework.beans.factory.annotation".
+  It can resolve dependencies either by field injection or by setter injection.
+  It allows you to mark it as non-mandatory.
+It supports below execution paths: 
+ Matches by Type
+ Restricts by Qualifiers
+ Matches by Name</t>
+  </si>
+  <si>
+    <t>This annotation provide classes with a declarative way to resolve.
+Its belongs to "javax.annotation.Resource"
+It can resolve dependencies either by field injection or by setter injection
+It allows you to specify a name of the injected bean
+Its part of the JSR250, and it supports below execution paths: 
+  Match by Name
+  Match by Type
+  Match by Qualifier / Restricts by Qualifiers (ignored if match is found by name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Autowired</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Lazy</t>
+  </si>
+  <si>
+    <t>Annotation based on JSR-330
+It supports below execution paths: 
+ Matches by Type
+ Restricts by Qualifiers
+ Matches by Name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5027,6 +5070,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5183,7 +5232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5416,9 +5465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5427,6 +5473,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6661,8 +6719,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B5:K97" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
-  <autoFilter ref="B5:K97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B5:K99" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="B5:K99"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Sr.No" dataDxfId="32"/>
     <tableColumn id="2" name="Subject" dataDxfId="31" dataCellStyle="Hyperlink"/>
@@ -6680,7 +6738,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B5:D44" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B5:D46" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
   <tableColumns count="3">
     <tableColumn id="1" name="Sr.No." dataDxfId="18"/>
     <tableColumn id="2" name="Questions / Assignments" dataDxfId="17"/>
@@ -7067,11 +7125,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7280,7 +7338,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -7317,10 +7375,10 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J13" s="68" t="s">
         <v>193</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>194</v>
       </c>
       <c r="K13" s="7"/>
     </row>
@@ -7343,10 +7401,10 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J14" s="68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7"/>
     </row>
@@ -7591,7 +7649,7 @@
       <c r="C25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="41" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -7602,7 +7660,9 @@
         <v>9</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="21" t="s">
+        <v>202</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
@@ -7635,7 +7695,7 @@
       <c r="C27" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="41" t="s">
         <v>77</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -7646,7 +7706,9 @@
         <v>9</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="7"/>
+      <c r="I27" s="21" t="s">
+        <v>202</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
@@ -9243,6 +9305,38 @@
         <v>185</v>
       </c>
       <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="24">
+        <v>93</v>
+      </c>
+      <c r="C98" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J98" s="86"/>
+      <c r="K98" s="72"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="24"/>
+      <c r="C99" s="84"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="86"/>
+      <c r="K99" s="72"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9297,6 +9391,9 @@
     <hyperlink ref="D13" location="General!C10" display="What do you know about GCP?"/>
     <hyperlink ref="D14" location="General!C11" display="How do Kubernetes sit on GC ?"/>
     <hyperlink ref="J14" r:id="rId9"/>
+    <hyperlink ref="D25" location="Spring!C10" display="@Resource"/>
+    <hyperlink ref="D27" location="Spring!C12" display="@Autowired"/>
+    <hyperlink ref="D98" location="Spring!C45" display=" @Inject"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -9309,11 +9406,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9326,18 +9423,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
+      <c r="A2" s="83"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
+      <c r="A3" s="83"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
+      <c r="A4" s="83"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -9397,15 +9494,17 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="25">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -9413,18 +9512,20 @@
         <v>6</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="25">
         <v>7</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -9724,13 +9825,31 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
+      <c r="B44" s="16">
+        <v>39</v>
+      </c>
       <c r="C44" s="16" t="s">
         <v>173</v>
       </c>
       <c r="D44" s="62" t="s">
         <v>174</v>
       </c>
+    </row>
+    <row r="45" spans="2:4" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="16">
+        <v>40</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9753,8 +9872,8 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9767,7 +9886,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>110</v>
       </c>
       <c r="B1" s="4"/>
@@ -9776,21 +9895,21 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9938,7 +10057,7 @@
         <v>74</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
@@ -10073,9 +10192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10087,7 +10206,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>110</v>
       </c>
       <c r="B1" s="4"/>
@@ -10095,19 +10214,19 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -10136,7 +10255,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="28">
         <v>2</v>
@@ -10145,7 +10264,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
@@ -10159,18 +10278,18 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B9" s="28">
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="166.5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="28">
         <v>5</v>
       </c>
@@ -10178,7 +10297,7 @@
         <v>59</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
@@ -10189,26 +10308,26 @@
         <v>60</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="81">
+      <c r="B12" s="80">
         <v>7</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="82"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="81">
+      <c r="B13" s="80">
         <v>8</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="83"/>
+      <c r="D13" s="82"/>
     </row>
     <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B14" s="28">
@@ -10218,7 +10337,7 @@
         <v>67</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -10238,7 +10357,7 @@
         <v>87</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">

--- a/Infopine_SpringBoot_Assignment_V1.0_24Dec2020.xlsx
+++ b/Infopine_SpringBoot_Assignment_V1.0_24Dec2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VersionControl" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="224">
   <si>
     <t>Subject</t>
   </si>
@@ -257,36 +257,6 @@
   </si>
   <si>
     <t>Fork</t>
-  </si>
-  <si>
-    <t>@Resource</t>
-  </si>
-  <si>
-    <t>@Lazy</t>
-  </si>
-  <si>
-    <t>@Autowired</t>
-  </si>
-  <si>
-    <t>@Value</t>
-  </si>
-  <si>
-    <t>@ApiOperation</t>
-  </si>
-  <si>
-    <t>@PostMapping</t>
-  </si>
-  <si>
-    <t>@ApiParam</t>
-  </si>
-  <si>
-    <t>@Api(value="abc"), what does it mean?</t>
-  </si>
-  <si>
-    <t>@RestCotroller</t>
-  </si>
-  <si>
-    <t>@RequestMapping</t>
   </si>
   <si>
     <t>Map&lt;String, Object&gt; tempObject = null what does this do ?</t>
@@ -3902,11 +3872,6 @@
     <t>What is a Pod?</t>
   </si>
   <si>
-    <t>1. https://cloud.google.com/kubernetes-engine/docs/concepts/pod#:~:text=Pods%20are%20the%20smallest%2C%20most,and%20share%20the%20Pod%27s%20resources.
-2.
- https://www.educative.io/blog/kubernetes-deployments-pods-services?aid=5082902844932096&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=blog-dynamic&amp;gclid=Cj0KCQiA3NX_BRDQARIsALA3fIJw6ugv2fEndTDjQqO1QIdGjSPJ0yepfRn1db4Yd5mNIbXub58Ltk4aAsEZEALw_wcB#pods</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Pods are the smallest, most basic deployable objects in Kubernetes. 
 A Pod represents a single instance of a running process in the cluster. (Or) A Pod is meant to run a single instance of the application of the cluster.
@@ -4822,38 +4787,6 @@
     <t>https://kubernetes.io/docs/concepts/workloads/controllers/garbage-collection/</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Batch Scripts:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Batch scripts are stored in simple text files containing lines with commands that get executed in sequence, one after the other. These files have the special extension BAT or CMD</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Shell Scripts:</t>
-    </r>
-  </si>
-  <si>
     <t>This process is known as forking.
 Creating a “fork” is producing a personal copy of someone else's project. 
 Forks act as a sort of bridge between the original repository and your personal copy. You can submit Pull Requests to help make other people’s projects better by offering your changes up to the original project.
@@ -4907,12 +4840,215 @@
  Restricts by Qualifiers
  Matches by Name</t>
   </si>
+  <si>
+    <t>server.port=8443
+server.ssl.enabled=true
+server.ssl.key-store=classpath:store.jks
+server.ssl.key-password=secret
+management.port=8080
+management.ssl.enabled=false</t>
+  </si>
+  <si>
+    <t>Completed - 19-01-2021</t>
+  </si>
+  <si>
+    <t>When a batch file is run, the shell program (usually COMMAND.COM or cmd.exe) reads the file and executes its commands, normally line-by-line. Unix-like operating systems, such as Linux, have a similar, but more flexible, type of file called a shell script. The filename extension . bat is used in DOS and Windows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ApiOperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @PostMapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ApiParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Api(value="abc"), what does it mean?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @RestCotroller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @RequestMapping</t>
+  </si>
+  <si>
+    <t>https://zetcode.com/springboot/lazybean/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Lazy annotation indicates whether a bean is to be lazily initialized. It can be used on @Component and @Bean definitions. 
+A @Lazy bean is not initialized until referenced by another bean or explicitly retrieved from BeanFactory. 
+Beans that are not annotated with @Lazy are initialized eagerly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Value is a Java annotation that is used at the field or method/constructor parameter level and it indicates a default value for the affected argument. It is commonly used for injecting values into configuration variables</t>
+  </si>
+  <si>
+    <t>https://stackabuse.com/the-value-annotation-in-spring/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ApiResponse</t>
+  </si>
+  <si>
+    <t>It can use the @ApiOperation annotation to describe the endpoint and its response type
+It is an attribute response to which we can pass the Response type
+Must specify the success response in @ApiOperation</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/43347929/apioperation-vs-apiresponse-in-swagger</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can specify ALL possible response objects in @ApiResponse
+ @ApiResponse is used wrapped inside @ApiResponses and generally used to specify error codes and exceptional cases like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resource Not Found</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bad Request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> etc.
+Also can also specify success response.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. https://dzone.com/articles/spring-boot-restful-api-documentation-with-swagger
+2. https://stackoverflow.com/questions/43347929/apioperation-vs-apiresponse-in-swagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @PostMapping annotation maps HTTP POST requests onto specific handler methods. It is a composed annotation that acts as a shortcut for @RequestMapping(method = RequestMethod.POST).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>1. https://zetcode.com/spring/postmapping/
+2. https://howtodoinjava.com/spring5/webmvc/controller-getmapping-postmapping/#postmapping</t>
+  </si>
+  <si>
+    <r>
+      <t>This annotation is used to describe the exposed REST API. It takes the following parameters-
+Annotation Parameter Description
+value The value is a short description of the parameter
+required If the parameter is optional or required.
+defaultValue Specify defaultValue of the parameter.  
+ @ApiOperation(value = "getGreeting", nickname = "getGreeting")
+ @ApiResponses(value = {
+          @ApiResponse(code = 500, message = "Server error"),
+          @ApiResponse(code = 200, message = "Successful retrieval",
+              response = Hello.class, responseContainer = "List") })
+ @RequestMapping(method = RequestMethod.GET, value = "/api/javainuse")
+ public List&lt;Hello&gt; sayHello(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@ApiParam(value = "testId", required = true, defaultValue = "111")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  @PathVariable(ID) final int institutuionId) {   return new Hello();  }</t>
+    </r>
+  </si>
+  <si>
+    <t>https://zetcode.com/springboot/restcontroller/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @RestController is a convenience annotation for creating Restful controllers.
+It is a specialization of @Component and is autodetected through classpath scanning. 
+It adds the @Controller and @ResponseBody annotations. 
+It converts the response to JSON or XML. 
+It does not work with the view technology, so the methods cannot return ModelAndView. 
+It is typically used in combination with annotated handler methods based on the @RequestMapping annotation.
+The @Controller annotation is used with the view technology.</t>
+  </si>
+  <si>
+    <t>https://springframework.guru/spring-requestmapping-annotation/</t>
+  </si>
+  <si>
+    <t>Need to specify the mappings between the requests and handler methods.
+To configure the mapping of web requests, you use the @RequestMapping annotation.
+The @RequestMapping annotation can be applied to class-level and/or method-level in a controller.
+@RestController
+@RequestMapping("/home")
+public class IndexController {
+  @RequestMapping("/")
+  String get(){      //mapped to hostname:port/home/
+    return "Hello from get";   }
+  @RequestMapping("/index")
+  String index(){    //mapped to hostname:port/home/index/
+    return "Hello from index";  } }
+With the preceding code, requests to /home will be handled by get() while request to /home/index will be handled by index().
+-------------------------------
+@RestController
+@RequestMapping("/home")
+public class IndexController {
+@RequestMapping(value={"", "/page", "page*","view/*,**/msg"})
+  String indexMultipleMapping(){
+    return "Hello from index multiple mapping.";   } }</t>
+  </si>
+  <si>
+    <t>1. https://cloud.google.com/kubernetes-engine/docs/concepts/pod#:~:text=Pods%20are%20the%20smallest%2C%20most,and%20share%20the%20Pod%27s%20resources.
+2.  https://www.educative.io/blog/kubernetes-deployments-pods-services?aid=5082902844932096&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=blog-dynamic&amp;gclid=Cj0KCQiA3NX_BRDQARIsALA3fIJw6ugv2fEndTDjQqO1QIdGjSPJ0yepfRn1db4Yd5mNIbXub58Ltk4aAsEZEALw_wcB#pods</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5076,8 +5212,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5093,6 +5236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5232,7 +5381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5474,16 +5623,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7039,7 +7197,7 @@
   <dimension ref="C6:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7053,19 +7211,19 @@
   <sheetData>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>116</v>
-      </c>
       <c r="G6" s="14" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
@@ -7073,10 +7231,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F7" s="50">
         <v>44189</v>
@@ -7088,16 +7246,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F8" s="8">
         <v>44189</v>
       </c>
       <c r="G8" s="10">
-        <v>44201</v>
+        <v>44215</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
@@ -7127,9 +7285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7143,7 +7301,7 @@
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="63.5703125" style="4" customWidth="1"/>
     <col min="11" max="11" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7152,7 +7310,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="54" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>0</v>
@@ -7173,13 +7331,13 @@
         <v>5</v>
       </c>
       <c r="I5" s="56" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K5" s="70" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7201,7 +7359,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J6" s="71"/>
       <c r="K6" s="71"/>
@@ -7225,7 +7383,7 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -7249,7 +7407,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -7273,7 +7431,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -7297,10 +7455,10 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="21" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7"/>
     </row>
@@ -7323,10 +7481,10 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="21" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7"/>
     </row>
@@ -7338,7 +7496,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -7349,10 +7507,10 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" s="68" t="s">
         <v>177</v>
-      </c>
-      <c r="J12" s="68" t="s">
-        <v>188</v>
       </c>
       <c r="K12" s="7"/>
     </row>
@@ -7375,10 +7533,10 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="J13" s="68" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7"/>
     </row>
@@ -7401,10 +7559,10 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="J14" s="68" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7"/>
     </row>
@@ -7450,7 +7608,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="68" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K16" s="7"/>
     </row>
@@ -7461,7 +7619,7 @@
       <c r="C17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -7472,7 +7630,9 @@
         <v>9</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="21" t="s">
+        <v>197</v>
+      </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
@@ -7483,7 +7643,7 @@
       <c r="C18" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="41" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -7494,7 +7654,9 @@
         <v>9</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="21" t="s">
+        <v>197</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
@@ -7517,7 +7679,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -7541,7 +7703,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="21" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -7565,7 +7727,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="21" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -7589,7 +7751,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="21" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -7613,7 +7775,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -7637,7 +7799,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -7650,7 +7812,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
@@ -7661,7 +7823,7 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="21" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -7673,8 +7835,8 @@
       <c r="C26" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>76</v>
+      <c r="D26" s="41" t="s">
+        <v>194</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
@@ -7684,8 +7846,12 @@
         <v>9</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="I26" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>206</v>
+      </c>
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -7696,7 +7862,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
@@ -7707,7 +7873,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="21" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -7719,8 +7885,8 @@
       <c r="C28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>78</v>
+      <c r="D28" s="87" t="s">
+        <v>199</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
@@ -7730,19 +7896,23 @@
         <v>9</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="I28" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" s="87" t="s">
+        <v>209</v>
+      </c>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="23">
         <v>24</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>79</v>
+      <c r="D29" s="41" t="s">
+        <v>200</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
@@ -7752,19 +7922,23 @@
         <v>9</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="I29" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J29" s="79" t="s">
+        <v>214</v>
+      </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="23">
         <v>25</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="22" t="s">
-        <v>80</v>
+      <c r="D30" s="41" t="s">
+        <v>201</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -7774,19 +7948,23 @@
         <v>9</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="I30" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J30" s="79" t="s">
+        <v>217</v>
+      </c>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B31" s="23">
         <v>26</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>81</v>
+      <c r="D31" s="41" t="s">
+        <v>202</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
@@ -7796,8 +7974,12 @@
         <v>9</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="I31" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="K31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -7808,7 +7990,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>8</v>
@@ -7829,8 +8011,8 @@
       <c r="C33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>83</v>
+      <c r="D33" s="41" t="s">
+        <v>204</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
@@ -7840,8 +8022,12 @@
         <v>9</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="I33" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>219</v>
+      </c>
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -7851,8 +8037,8 @@
       <c r="C34" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="22" t="s">
-        <v>84</v>
+      <c r="D34" s="41" t="s">
+        <v>205</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
@@ -7862,8 +8048,12 @@
         <v>9</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="I34" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>221</v>
+      </c>
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -7874,7 +8064,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
@@ -7896,7 +8086,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
@@ -7918,7 +8108,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
@@ -7929,7 +8119,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="21" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -7942,7 +8132,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>8</v>
@@ -7964,7 +8154,7 @@
         <v>10</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>8</v>
@@ -7975,7 +8165,7 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="21" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -7988,7 +8178,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>8</v>
@@ -8010,7 +8200,7 @@
         <v>19</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>8</v>
@@ -8032,7 +8222,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>8</v>
@@ -8054,7 +8244,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
@@ -8076,7 +8266,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="74" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E44" s="64" t="s">
         <v>8</v>
@@ -8087,13 +8277,13 @@
       </c>
       <c r="H44" s="64"/>
       <c r="I44" s="21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K44" s="67" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
@@ -8104,7 +8294,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>8</v>
@@ -8126,7 +8316,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>8</v>
@@ -8148,7 +8338,7 @@
         <v>10</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>8</v>
@@ -8170,7 +8360,7 @@
         <v>10</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
@@ -8192,7 +8382,7 @@
         <v>10</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>8</v>
@@ -8214,7 +8404,7 @@
         <v>10</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
@@ -8225,7 +8415,7 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -8238,7 +8428,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>8</v>
@@ -8260,7 +8450,7 @@
         <v>16</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>8</v>
@@ -8271,7 +8461,7 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -8284,7 +8474,7 @@
         <v>16</v>
       </c>
       <c r="D53" s="53" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>8</v>
@@ -8295,7 +8485,7 @@
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -8308,7 +8498,7 @@
         <v>16</v>
       </c>
       <c r="D54" s="53" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>8</v>
@@ -8319,7 +8509,7 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -8332,7 +8522,7 @@
         <v>16</v>
       </c>
       <c r="D55" s="53" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>8</v>
@@ -8343,7 +8533,7 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -8411,7 +8601,7 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -8457,7 +8647,7 @@
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -8503,13 +8693,13 @@
       </c>
       <c r="H62" s="43"/>
       <c r="I62" s="21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J62" s="43" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K62" s="43" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
@@ -8531,7 +8721,7 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -8676,7 +8866,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>8</v>
@@ -8709,7 +8899,7 @@
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="21" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -8733,7 +8923,7 @@
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="21" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -8757,10 +8947,10 @@
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="21" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J73" s="68" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K73" s="7"/>
     </row>
@@ -8849,10 +9039,10 @@
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K77" s="7"/>
     </row>
@@ -8875,10 +9065,10 @@
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J78" s="69" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="K78" s="7"/>
     </row>
@@ -8901,7 +9091,7 @@
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -8925,10 +9115,10 @@
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J80" s="69" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="K80" s="7"/>
     </row>
@@ -8951,10 +9141,10 @@
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="K81" s="7"/>
     </row>
@@ -9175,7 +9365,7 @@
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -9199,7 +9389,7 @@
       </c>
       <c r="H92" s="18"/>
       <c r="I92" s="21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -9212,14 +9402,14 @@
         <v>68</v>
       </c>
       <c r="D93" s="57" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
       <c r="G93" s="19"/>
       <c r="H93" s="18"/>
       <c r="I93" s="21" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -9232,14 +9422,14 @@
         <v>16</v>
       </c>
       <c r="D94" s="57" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="18"/>
       <c r="G94" s="19"/>
       <c r="H94" s="18"/>
       <c r="I94" s="21" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -9252,14 +9442,14 @@
         <v>68</v>
       </c>
       <c r="D95" s="57" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
       <c r="G95" s="19"/>
       <c r="H95" s="18"/>
       <c r="I95" s="21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -9272,19 +9462,19 @@
         <v>68</v>
       </c>
       <c r="D96" s="57" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
       <c r="G96" s="19"/>
       <c r="H96" s="18"/>
       <c r="I96" s="21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J96" s="72"/>
       <c r="K96" s="72"/>
     </row>
-    <row r="97" spans="2:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" ht="135" x14ac:dyDescent="0.25">
       <c r="B97" s="23">
         <v>92</v>
       </c>
@@ -9292,17 +9482,17 @@
         <v>55</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="2"/>
       <c r="H97" s="1"/>
       <c r="I97" s="21" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J97" s="79" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="K97" s="7"/>
     </row>
@@ -9310,32 +9500,42 @@
       <c r="B98" s="24">
         <v>93</v>
       </c>
-      <c r="C98" s="84" t="s">
+      <c r="C98" s="83" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="57" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
       <c r="G98" s="19"/>
       <c r="H98" s="18"/>
       <c r="I98" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="J98" s="86"/>
+        <v>190</v>
+      </c>
+      <c r="J98" s="84"/>
       <c r="K98" s="72"/>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="24"/>
-      <c r="C99" s="84"/>
-      <c r="D99" s="72"/>
+    <row r="99" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B99" s="24">
+        <v>94</v>
+      </c>
+      <c r="C99" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="57" t="s">
+        <v>210</v>
+      </c>
       <c r="E99" s="18"/>
       <c r="F99" s="18"/>
       <c r="G99" s="19"/>
       <c r="H99" s="18"/>
-      <c r="I99" s="85"/>
-      <c r="J99" s="86"/>
+      <c r="I99" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J99" s="89" t="s">
+        <v>212</v>
+      </c>
       <c r="K99" s="72"/>
     </row>
   </sheetData>
@@ -9394,12 +9594,26 @@
     <hyperlink ref="D25" location="Spring!C10" display="@Resource"/>
     <hyperlink ref="D27" location="Spring!C12" display="@Autowired"/>
     <hyperlink ref="D98" location="Spring!C45" display=" @Inject"/>
+    <hyperlink ref="D17" location="Spring!C9" display="How ports play important roles in Spring Boot"/>
+    <hyperlink ref="D18" location="General!C14" display="What are batch files and shell scipts used for ?"/>
+    <hyperlink ref="D26" location="Spring!C7" display=" @Lazy"/>
+    <hyperlink ref="J28" r:id="rId10"/>
+    <hyperlink ref="D28" location="Spring!C13" display=" @Value"/>
+    <hyperlink ref="D29" location="Spring!C14" display=" @ApiOperation"/>
+    <hyperlink ref="J99" r:id="rId11"/>
+    <hyperlink ref="D99" location="Spring!C46" display=" @ApiResponse"/>
+    <hyperlink ref="D30" location="Spring!C15" display=" @PostMapping"/>
+    <hyperlink ref="D31" location="Spring!C16" display=" @ApiParam"/>
+    <hyperlink ref="J33" r:id="rId12"/>
+    <hyperlink ref="D33" location="Spring!C18" display=" @RestCotroller"/>
+    <hyperlink ref="J34" r:id="rId13"/>
+    <hyperlink ref="D34" location="Spring!C19" display=" @RequestMapping"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
+  <drawing r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9408,9 +9622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9423,29 +9637,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>110</v>
+      <c r="A1" s="85" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
+      <c r="A2" s="85"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
+      <c r="A3" s="85"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
+      <c r="A4" s="85"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="37" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9457,7 +9671,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="300" x14ac:dyDescent="0.25">
@@ -9469,7 +9683,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -9481,10 +9695,10 @@
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="25">
         <v>4</v>
@@ -9492,7 +9706,9 @@
       <c r="C9" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -9500,19 +9716,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="25">
         <v>6</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>206</v>
+        <v>194</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -9521,83 +9740,95 @@
         <v>7</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="25">
         <v>8</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="25">
         <v>9</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>10</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>11</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>12</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>13</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="315" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>14</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>15</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D20" s="16"/>
     </row>
@@ -9606,7 +9837,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D21" s="16"/>
     </row>
@@ -9615,7 +9846,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D22" s="16"/>
     </row>
@@ -9681,7 +9912,7 @@
         <v>34</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="165" x14ac:dyDescent="0.25">
@@ -9692,7 +9923,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="240" x14ac:dyDescent="0.25">
@@ -9703,7 +9934,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="105" x14ac:dyDescent="0.25">
@@ -9714,7 +9945,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9725,7 +9956,7 @@
         <v>38</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="195" x14ac:dyDescent="0.25">
@@ -9736,7 +9967,7 @@
         <v>39</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -9810,7 +10041,7 @@
         <v>48</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="120" x14ac:dyDescent="0.25">
@@ -9821,7 +10052,7 @@
         <v>49</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="90" x14ac:dyDescent="0.25">
@@ -9829,27 +10060,33 @@
         <v>39</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B45" s="16">
         <v>40</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="16">
+        <v>41</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="62" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9872,8 +10109,8 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9886,8 +10123,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>110</v>
+      <c r="A1" s="85" t="s">
+        <v>100</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -9895,21 +10132,21 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -9918,7 +10155,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="30" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>0</v>
@@ -9927,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -9936,13 +10173,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -9951,13 +10188,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -9966,13 +10203,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -9981,13 +10218,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
@@ -9995,13 +10232,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
@@ -10009,13 +10246,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -10023,13 +10260,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
@@ -10037,13 +10274,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
@@ -10051,13 +10288,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
@@ -10065,13 +10302,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="140.25" x14ac:dyDescent="0.25">
@@ -10082,10 +10319,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="293.25" x14ac:dyDescent="0.25">
@@ -10096,10 +10333,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -10110,10 +10347,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -10124,10 +10361,10 @@
         <v>16</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="102" x14ac:dyDescent="0.25">
@@ -10141,7 +10378,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10155,7 +10392,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -10166,10 +10403,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -10193,8 +10430,8 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10206,27 +10443,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>110</v>
+      <c r="A1" s="85" t="s">
+        <v>100</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -10234,13 +10471,13 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="30" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="216.75" x14ac:dyDescent="0.25">
@@ -10252,7 +10489,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10264,7 +10501,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
@@ -10275,7 +10512,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -10283,10 +10520,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -10297,7 +10534,7 @@
         <v>59</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
@@ -10308,7 +10545,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -10329,7 +10566,7 @@
       </c>
       <c r="D13" s="82"/>
     </row>
-    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B14" s="28">
         <v>9</v>
       </c>
@@ -10337,7 +10574,7 @@
         <v>67</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -10345,7 +10582,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D15" s="34"/>
     </row>
@@ -10354,10 +10591,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
@@ -10365,10 +10602,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -10376,7 +10613,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D18" s="34"/>
     </row>
@@ -10385,7 +10622,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D19" s="34"/>
     </row>
@@ -10394,7 +10631,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D20" s="34"/>
     </row>
@@ -10403,10 +10640,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -10414,7 +10651,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D22" s="34"/>
     </row>
@@ -10423,7 +10660,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D23" s="34"/>
     </row>
@@ -10432,7 +10669,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D24" s="34"/>
     </row>
@@ -10441,7 +10678,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D25" s="34"/>
     </row>
@@ -10450,7 +10687,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D26" s="34"/>
     </row>
@@ -10459,10 +10696,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -10470,7 +10707,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D28" s="35"/>
     </row>
@@ -10491,7 +10728,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="60" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -10511,7 +10748,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="60" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -10564,11 +10801,11 @@
         <v>33</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D38" s="34"/>
     </row>
-    <row r="39" spans="2:4" ht="408.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="28">
         <v>34</v>
       </c>
@@ -10576,7 +10813,7 @@
         <v>26</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -10587,7 +10824,7 @@
         <v>27</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="77.25" x14ac:dyDescent="0.25">
@@ -10598,7 +10835,7 @@
         <v>28</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -10615,10 +10852,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="77" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D43" s="78" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Infopine_SpringBoot_Assignment_V1.0_24Dec2020.xlsx
+++ b/Infopine_SpringBoot_Assignment_V1.0_24Dec2020.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="251">
   <si>
     <t>Subject</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>How do you make a class abstract and what does it mean to make a class abstract, give an example.</t>
-  </si>
-  <si>
-    <t>@RequestBody</t>
   </si>
   <si>
     <t>How does Interface help java programming or object oriented programming ?</t>
@@ -5042,6 +5039,175 @@
   <si>
     <t>1. https://cloud.google.com/kubernetes-engine/docs/concepts/pod#:~:text=Pods%20are%20the%20smallest%2C%20most,and%20share%20the%20Pod%27s%20resources.
 2.  https://www.educative.io/blog/kubernetes-deployments-pods-services?aid=5082902844932096&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=blog-dynamic&amp;gclid=Cj0KCQiA3NX_BRDQARIsALA3fIJw6ugv2fEndTDjQqO1QIdGjSPJ0yepfRn1db4Yd5mNIbXub58Ltk4aAsEZEALw_wcB#pods</t>
+  </si>
+  <si>
+    <t>ResponseEntity represents an HTTP response, including headers, body, and status.
+@ResponseBody puts the return value into the body of the response.
+ResponseEntity also allows us to add headers and status code</t>
+  </si>
+  <si>
+    <t>https://zetcode.com/springboot/responseentity/#:~:text=ResponseEntity%20represents%20an%20HTTP%20response,add%20headers%20and%20status%20code.</t>
+  </si>
+  <si>
+    <t>25-01-2021 Completed</t>
+  </si>
+  <si>
+    <t>https://beginnersbook.com/2013/05/java-abstract-class-method/</t>
+  </si>
+  <si>
+    <t>A class that is declared using “abstract” keyword is known as abstract class.
+It can have abstract methods(methods without body) as well as concrete methods (regular methods with body)
+A class derived from the abstract class must implement all those methods that are declared as abstract in the parent class
+Abstract class cannot be instantiated which means you cannot create the object of it.
+If a child does not implement all the abstract methods of abstract parent class, then the child class must need to be declared abstract as well</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @RequestBody</t>
+  </si>
+  <si>
+    <t>1. https://www.baeldung.com/spring-request-response-body
+2. https://stackoverflow.com/questions/11291933/requestbody-and-responsebody-annotations-in-spring</t>
+  </si>
+  <si>
+    <t>The @RequestBody annotation maps the HttpRequest body to a transfer or domain object, enabling automatic deserialization of the inbound HttpRequest body onto a Java object.
+By default, the type we annotate with the @RequestBody annotation must correspond to the JSON sent from our client-side controller:
+--------
+@RequestBody : Annotation indicating a method parameter should be bound to the body of the HTTP request.
+@RequestMapping(path = "/something", method = RequestMethod.PUT)
+public void handle(@RequestBody String body, Writer writer) throws IOException {
+    writer.write(body);
+}</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/interfaces-in-java/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is used to achieve total abstraction.
+Since java does not support multiple inheritance in case of class, but by using interface it can achieve multiple inheritance .
+It is also used to achieve loose coupling.
+Interfaces are used to implement abstraction.
+</t>
+  </si>
+  <si>
+    <t>Apache Solr (Searching On Lucene w/ Replication) is a free, open-source search engine based on the Apache Lucene library.
+Solr is a standalone enterprise search server with a REST-like API. You put documents in it (called "indexing") via JSON, XML, CSV or binary over HTTP. You query it via HTTP GET and receive JSON, XML, CSV or binary results.</t>
+  </si>
+  <si>
+    <t>https://sematext.com/guides/solr/</t>
+  </si>
+  <si>
+    <t>Completed - 01-02-2021</t>
+  </si>
+  <si>
+    <t>The @JsonIgnoreProperties annotation is used at the class level to ignore fields during serialization and deserialization. The properties that are declared in this annotation will not be mapped to the JSON content.
+********************************************************************************************************
+import com.fasterxml.jackson.annotation.JsonIgnoreProperties;
+@JsonIgnoreProperties({"userId", "gender"})
+public class IgnorePropertiesDemoBean {
+    public long  userId = 0;
+    public String  name = "James Clark";
+    public String  gender  = null;
+    @Override
+    public String toString() {
+        return "IgnorePropertiesDemoBean{" +
+                "userId=" + userId +
+                ", name='" + name + '\'' +
+                ", gender='" + gender + '\'' +
+                '}';
+    }
+}
+----------------
+import com.fasterxml.jackson.core.JsonProcessingException;
+import com.fasterxml.jackson.databind.ObjectMapper;
+import org.junit.After;
+import org.junit.Before;
+import org.junit.Test;
+import java.io.IOException;
+import static org.hamcrest.Matchers.containsString;
+import static org.hamcrest.Matchers.is;
+import static org.hamcrest.Matchers.not;
+import static org.hamcrest.core.IsEqual.equalTo;
+import static org.junit.Assert.*;
+public class IgnorePropertiesDemoBeanTest {
+    private ObjectMapper objectMapper ;
+    @Before
+    public void setUp() throws Exception{
+        objectMapper = new ObjectMapper();
+    }
+    @After
+    public void tearDown() throws Exception{
+        objectMapper = null;
+    }
+    @Test
+    public void testSerializingWithJsonIgnoreProperties()
+            throws JsonProcessingException {
+        String jsonString = objectMapper.writeValueAsString(new IgnorePropertiesDemoBean());
+        System.out.println(jsonString);
+        assertThat(jsonString, containsString("James Clark"));
+        assertThat(jsonString, not(containsString("userId")));
+    }
+    @Test
+    public void testDeSerializingWithJsonIgnoreProperties() throws IOException {
+        String jsonString = "{\"userId\": 231, \"name\": \"Mary Parker\", \"gender\": \"male\"}";
+        ObjectMapper mapper = new ObjectMapper();
+        IgnorePropertiesDemoBean bean = objectMapper.readValue(jsonString, IgnorePropertiesDemoBean.class);
+        System.out.println(bean);
+        assertThat(bean.name, is(equalTo("Mary Parker")));
+        assertThat(bean.userId, is(not(equalTo(231L))));
+    }
+}</t>
+  </si>
+  <si>
+    <t>https://springframework.guru/jackson-annotations-json/</t>
+  </si>
+  <si>
+    <t>Jackson is a suite of data-processing tools for Java comprising of three components
+1. Streaming (jackson-core) defines low-level streaming API and includes JSON-specific implementations.
+2. Annotations (jackson-annotations) contains standard Jackson annotations.
+3. Databind (jackson-databind) implements data-binding (and object serialization) support on streaming package. This package depends both on streaming and annotations packages</t>
+  </si>
+  <si>
+    <t>Serialization in Java allows us to convert an Object to stream that we can send over the network or save it as file or store in DB for later usage. Deserialization is the process of converting Object stream to actual Java Object to be used in our program.</t>
+  </si>
+  <si>
+    <t>https://www.journaldev.com/2452/serialization-in-java#:~:text=Serialization%20in%20Java%20allows%20us,be%20used%20in%20our%20program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @SpringBootApplication</t>
+  </si>
+  <si>
+    <t>https://dzone.com/articles/the-springbootapplication-annotation-example-in-ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @SpringBootApplication = @Configuration + @ComponentScan + @EnableAutoConfiguration
+@Configuration: This annotation marks a class as a Configuration class for Java-based configuration. This is particularly important if you favor Java-based configuration over XML configuration. 
+@ComponentScan:  This annotation enables component-scanning so that the web controller classes and other components you create will be automatically discovered and registered as beans in Spring's Application Context. All the@Controller classes you write are discovered by this annotation.
+@EnableAutoConfiguration:  This annotation enables the magical auto-configuration feature of Spring Boot, which can automatically configure a lot of stuff for you.</t>
+  </si>
+  <si>
+    <t>Mockito and AssertJ are automatically imported with the spring-boot-starter-test dependency, but we’ll have to include Lombok ourselves</t>
+  </si>
+  <si>
+    <t>https://reflectoring.io/unit-testing-spring-boot/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Service, what does this mean?</t>
+  </si>
+  <si>
+    <t>Service Components are the class file which contains @Service annotation. These class files are used to write business logic in a different layer, separated from @RestController class file.</t>
+  </si>
+  <si>
+    <t>1. https://www.tutorialspoint.com/spring_boot/spring_boot_service_components.htm
+2. https://www.journaldev.com/21435/spring-service-annotation#:~:text=Spring%20%40Service%20annotation%20is%20a,class%20as%20a%20service%20provider.</t>
+  </si>
+  <si>
+    <t>https://www.appsdeveloperblog.com/command-line-arguments-spring-boot/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. mvn spring-boot:run -Dspring-boot.run.arguments="--firstName=Sergey --lastName=Kargopolov" 
+Or
+2. mvn package
+     java -jar target/&lt;FILENAME.JAR HERE&gt; --firstName=Sergey --lastName=Kargopolov </t>
   </si>
 </sst>
 </file>
@@ -5193,13 +5359,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF00B050"/>
@@ -5218,6 +5377,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5580,12 +5744,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5611,9 +5769,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5623,26 +5778,35 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6671,14 +6835,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:colOff>1095375</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>139976</xdr:rowOff>
     </xdr:to>
@@ -6703,7 +6867,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85725" y="57150"/>
+          <a:off x="352425" y="57150"/>
           <a:ext cx="1543050" cy="654326"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7197,7 +7361,7 @@
   <dimension ref="C6:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7211,19 +7375,19 @@
   <sheetData>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
@@ -7231,10 +7395,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="50">
         <v>44189</v>
@@ -7246,16 +7410,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>104</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>105</v>
       </c>
       <c r="F8" s="8">
         <v>44189</v>
       </c>
       <c r="G8" s="10">
-        <v>44215</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
@@ -7283,11 +7447,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7306,11 +7470,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
+      <c r="A1" s="71"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>0</v>
@@ -7331,13 +7495,13 @@
         <v>5</v>
       </c>
       <c r="I5" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="K5" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="68" t="s">
         <v>149</v>
+      </c>
+      <c r="K5" s="68" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7359,10 +7523,10 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
+        <v>118</v>
+      </c>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="23">
@@ -7383,7 +7547,7 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -7407,7 +7571,7 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -7431,12 +7595,12 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="B10" s="23">
         <v>5</v>
       </c>
@@ -7455,14 +7619,14 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J10" s="68" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="J10" s="86" t="s">
+        <v>171</v>
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="B11" s="23">
         <v>6</v>
       </c>
@@ -7481,14 +7645,14 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11" s="68" t="s">
-        <v>173</v>
+        <v>166</v>
+      </c>
+      <c r="J11" s="86" t="s">
+        <v>172</v>
       </c>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="B12" s="23">
         <v>7</v>
       </c>
@@ -7496,7 +7660,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -7507,10 +7671,10 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J12" s="68" t="s">
-        <v>177</v>
+        <v>166</v>
+      </c>
+      <c r="J12" s="86" t="s">
+        <v>176</v>
       </c>
       <c r="K12" s="7"/>
     </row>
@@ -7533,14 +7697,14 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="J13" s="68" t="s">
-        <v>182</v>
-      </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B14" s="23">
         <v>9</v>
       </c>
@@ -7559,10 +7723,10 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" s="68" t="s">
-        <v>185</v>
+        <v>180</v>
+      </c>
+      <c r="J14" s="86" t="s">
+        <v>184</v>
       </c>
       <c r="K14" s="7"/>
     </row>
@@ -7607,8 +7771,8 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="68" t="s">
-        <v>135</v>
+      <c r="J16" s="86" t="s">
+        <v>134</v>
       </c>
       <c r="K16" s="7"/>
     </row>
@@ -7631,7 +7795,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -7655,7 +7819,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -7679,7 +7843,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -7703,7 +7867,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -7727,7 +7891,7 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -7751,7 +7915,7 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -7775,7 +7939,7 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -7799,7 +7963,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -7812,7 +7976,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
@@ -7823,7 +7987,7 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -7836,7 +8000,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
@@ -7847,10 +8011,10 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="J26" t="s">
-        <v>206</v>
+        <v>196</v>
+      </c>
+      <c r="J26" s="86" t="s">
+        <v>205</v>
       </c>
       <c r="K26" s="7"/>
     </row>
@@ -7862,7 +8026,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
@@ -7873,7 +8037,7 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -7885,8 +8049,8 @@
       <c r="C28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="87" t="s">
-        <v>199</v>
+      <c r="D28" s="83" t="s">
+        <v>198</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
@@ -7897,14 +8061,14 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="J28" s="87" t="s">
-        <v>209</v>
+        <v>196</v>
+      </c>
+      <c r="J28" s="83" t="s">
+        <v>208</v>
       </c>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B29" s="23">
         <v>24</v>
       </c>
@@ -7912,7 +8076,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
@@ -7923,14 +8087,14 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="J29" s="79" t="s">
-        <v>214</v>
+        <v>196</v>
+      </c>
+      <c r="J29" s="86" t="s">
+        <v>213</v>
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="39" x14ac:dyDescent="0.25">
       <c r="B30" s="23">
         <v>25</v>
       </c>
@@ -7938,7 +8102,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -7949,10 +8113,10 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="J30" s="79" t="s">
-        <v>217</v>
+        <v>196</v>
+      </c>
+      <c r="J30" s="86" t="s">
+        <v>216</v>
       </c>
       <c r="K30" s="7"/>
     </row>
@@ -7964,7 +8128,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
@@ -7975,10 +8139,10 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7"/>
     </row>
@@ -7990,7 +8154,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>8</v>
@@ -8012,7 +8176,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
@@ -8023,10 +8187,10 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K33" s="7"/>
     </row>
@@ -8038,7 +8202,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
@@ -8049,10 +8213,10 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7"/>
     </row>
@@ -8078,14 +8242,14 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="23">
         <v>31</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="87" t="s">
         <v>76</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -8096,8 +8260,12 @@
         <v>9</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="I36" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J36" s="87" t="s">
+        <v>224</v>
+      </c>
       <c r="K36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -8119,7 +8287,7 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -8165,19 +8333,19 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="23">
         <v>35</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="87" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -8188,19 +8356,23 @@
         <v>9</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="7"/>
+      <c r="I40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J40" s="87" t="s">
+        <v>226</v>
+      </c>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B41" s="23">
         <v>36</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>81</v>
+      <c r="D41" s="87" t="s">
+        <v>228</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>8</v>
@@ -8210,8 +8382,12 @@
         <v>9</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="I41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="K41" s="7"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -8222,7 +8398,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>8</v>
@@ -8232,8 +8408,12 @@
         <v>9</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="7"/>
+      <c r="I42" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J42" s="87" t="s">
+        <v>231</v>
+      </c>
       <c r="K42" s="7"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
@@ -8244,7 +8424,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
@@ -8258,15 +8438,15 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="2:11" ht="102" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B44" s="63">
         <v>39</v>
       </c>
       <c r="C44" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="74" t="s">
-        <v>84</v>
+      <c r="D44" s="72" t="s">
+        <v>83</v>
       </c>
       <c r="E44" s="64" t="s">
         <v>8</v>
@@ -8277,13 +8457,13 @@
       </c>
       <c r="H44" s="64"/>
       <c r="I44" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K44" s="67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
@@ -8293,8 +8473,8 @@
       <c r="C45" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>85</v>
+      <c r="D45" s="78" t="s">
+        <v>84</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>8</v>
@@ -8315,8 +8495,8 @@
       <c r="C46" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="22" t="s">
-        <v>86</v>
+      <c r="D46" s="78" t="s">
+        <v>85</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>8</v>
@@ -8330,15 +8510,15 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="23">
         <v>42</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="22" t="s">
-        <v>87</v>
+      <c r="D47" s="87" t="s">
+        <v>86</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>8</v>
@@ -8348,8 +8528,12 @@
         <v>9</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="7"/>
+      <c r="I47" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="J47" s="87" t="s">
+        <v>240</v>
+      </c>
       <c r="K47" s="7"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
@@ -8359,8 +8543,8 @@
       <c r="C48" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="22" t="s">
-        <v>88</v>
+      <c r="D48" s="87" t="s">
+        <v>87</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
@@ -8370,8 +8554,12 @@
         <v>9</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="7"/>
+      <c r="I48" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="J48" s="87" t="s">
+        <v>237</v>
+      </c>
       <c r="K48" s="7"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -8381,8 +8569,8 @@
       <c r="C49" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="22" t="s">
-        <v>89</v>
+      <c r="D49" s="87" t="s">
+        <v>88</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>8</v>
@@ -8392,8 +8580,12 @@
         <v>9</v>
       </c>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="7"/>
+      <c r="I49" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="J49" s="87" t="s">
+        <v>237</v>
+      </c>
       <c r="K49" s="7"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -8404,7 +8596,7 @@
         <v>10</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
@@ -8415,7 +8607,7 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -8428,7 +8620,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>8</v>
@@ -8450,7 +8642,7 @@
         <v>16</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>8</v>
@@ -8461,7 +8653,7 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -8474,7 +8666,7 @@
         <v>16</v>
       </c>
       <c r="D53" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>8</v>
@@ -8485,7 +8677,7 @@
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -8498,7 +8690,7 @@
         <v>16</v>
       </c>
       <c r="D54" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>8</v>
@@ -8509,7 +8701,7 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
@@ -8522,7 +8714,7 @@
         <v>16</v>
       </c>
       <c r="D55" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>8</v>
@@ -8533,20 +8725,20 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="23">
         <v>51</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="22" t="s">
-        <v>7</v>
+      <c r="D56" s="87" t="s">
+        <v>241</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>8</v>
@@ -8556,8 +8748,12 @@
         <v>9</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="7"/>
+      <c r="I56" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="J56" s="87" t="s">
+        <v>242</v>
+      </c>
       <c r="K56" s="7"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
@@ -8567,7 +8763,7 @@
       <c r="C57" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="87" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -8578,8 +8774,12 @@
         <v>9</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="7"/>
+      <c r="I57" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="J57" s="87" t="s">
+        <v>234</v>
+      </c>
       <c r="K57" s="7"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -8601,7 +8801,7 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
@@ -8613,7 +8813,7 @@
       <c r="C59" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="87" t="s">
         <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -8624,8 +8824,12 @@
         <v>9</v>
       </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="7"/>
+      <c r="I59" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="J59" s="87" t="s">
+        <v>245</v>
+      </c>
       <c r="K59" s="7"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
@@ -8647,7 +8851,7 @@
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -8681,7 +8885,7 @@
       <c r="C62" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="74" t="s">
+      <c r="D62" s="72" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="43" t="s">
@@ -8693,13 +8897,13 @@
       </c>
       <c r="H62" s="43"/>
       <c r="I62" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J62" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K62" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
@@ -8721,20 +8925,20 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B64" s="23">
         <v>59</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="22" t="s">
-        <v>20</v>
+      <c r="D64" s="87" t="s">
+        <v>246</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>8</v>
@@ -8744,18 +8948,22 @@
         <v>9</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="7"/>
+      <c r="I64" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>248</v>
+      </c>
       <c r="K64" s="7"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="23">
         <v>60</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="87" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -8766,8 +8974,12 @@
         <v>9</v>
       </c>
       <c r="H65" s="1"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="7"/>
+      <c r="I65" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="J65" s="87" t="s">
+        <v>249</v>
+      </c>
       <c r="K65" s="7"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
@@ -8866,7 +9078,7 @@
         <v>10</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>8</v>
@@ -8899,7 +9111,7 @@
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -8923,7 +9135,7 @@
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -8947,10 +9159,10 @@
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J73" s="86" t="s">
         <v>167</v>
-      </c>
-      <c r="J73" s="68" t="s">
-        <v>168</v>
       </c>
       <c r="K73" s="7"/>
     </row>
@@ -9039,10 +9251,10 @@
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K77" s="7"/>
     </row>
@@ -9065,10 +9277,10 @@
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="J78" s="69" t="s">
-        <v>154</v>
+        <v>145</v>
+      </c>
+      <c r="J78" s="86" t="s">
+        <v>153</v>
       </c>
       <c r="K78" s="7"/>
     </row>
@@ -9091,12 +9303,12 @@
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
     </row>
-    <row r="80" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="23">
         <v>75</v>
       </c>
@@ -9115,10 +9327,10 @@
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="J80" s="69" t="s">
-        <v>153</v>
+        <v>145</v>
+      </c>
+      <c r="J80" s="86" t="s">
+        <v>152</v>
       </c>
       <c r="K80" s="7"/>
     </row>
@@ -9141,10 +9353,10 @@
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K81" s="7"/>
     </row>
@@ -9365,7 +9577,7 @@
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -9389,7 +9601,7 @@
       </c>
       <c r="H92" s="18"/>
       <c r="I92" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -9402,14 +9614,14 @@
         <v>68</v>
       </c>
       <c r="D93" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
       <c r="G93" s="19"/>
       <c r="H93" s="18"/>
       <c r="I93" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
@@ -9422,14 +9634,14 @@
         <v>16</v>
       </c>
       <c r="D94" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="18"/>
       <c r="G94" s="19"/>
       <c r="H94" s="18"/>
       <c r="I94" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
@@ -9442,14 +9654,14 @@
         <v>68</v>
       </c>
       <c r="D95" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
       <c r="G95" s="19"/>
       <c r="H95" s="18"/>
       <c r="I95" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
@@ -9462,19 +9674,19 @@
         <v>68</v>
       </c>
       <c r="D96" s="57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
       <c r="G96" s="19"/>
       <c r="H96" s="18"/>
       <c r="I96" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="J96" s="72"/>
-      <c r="K96" s="72"/>
-    </row>
-    <row r="97" spans="2:11" ht="135" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="J96" s="70"/>
+      <c r="K96" s="70"/>
+    </row>
+    <row r="97" spans="2:11" ht="115.5" x14ac:dyDescent="0.25">
       <c r="B97" s="23">
         <v>92</v>
       </c>
@@ -9482,17 +9694,17 @@
         <v>55</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="2"/>
       <c r="H97" s="1"/>
       <c r="I97" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J97" s="79" t="s">
-        <v>223</v>
+        <v>166</v>
+      </c>
+      <c r="J97" s="86" t="s">
+        <v>222</v>
       </c>
       <c r="K97" s="7"/>
     </row>
@@ -9500,43 +9712,46 @@
       <c r="B98" s="24">
         <v>93</v>
       </c>
-      <c r="C98" s="83" t="s">
+      <c r="C98" s="80" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
       <c r="G98" s="19"/>
       <c r="H98" s="18"/>
       <c r="I98" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="J98" s="84"/>
-      <c r="K98" s="72"/>
-    </row>
-    <row r="99" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="J98" s="81"/>
+      <c r="K98" s="70"/>
+    </row>
+    <row r="99" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B99" s="24">
         <v>94</v>
       </c>
-      <c r="C99" s="83" t="s">
+      <c r="C99" s="80" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="18"/>
       <c r="G99" s="19"/>
       <c r="H99" s="18"/>
       <c r="I99" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="J99" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="K99" s="72"/>
+        <v>196</v>
+      </c>
+      <c r="J99" s="86" t="s">
+        <v>211</v>
+      </c>
+      <c r="K99" s="70"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J100" s="85"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9556,7 +9771,6 @@
     <hyperlink ref="D23" location="Git_Maven!D13" display="Git commit"/>
     <hyperlink ref="D95" location="Git_Maven!D12" display="Git add"/>
     <hyperlink ref="D96" location="Git_Maven!D15" display="Git Clone"/>
-    <hyperlink ref="J16" r:id="rId1"/>
     <hyperlink ref="D24" location="Git_Maven!D14" display="Fork"/>
     <hyperlink ref="D52" location="Git_Maven!D16" display="How does Maven Build work?"/>
     <hyperlink ref="D50" location="General!C27" display="What are enumerations used for?"/>
@@ -9568,46 +9782,58 @@
     <hyperlink ref="D72" location="General!C40" display="What are qualifiers in java?"/>
     <hyperlink ref="D9" location="Spring!C8" display="How does Spring boot support micro services"/>
     <hyperlink ref="D92" location="Spring!C42" display="Programatic Transaction Management. How is this achieved in Spring?"/>
-    <hyperlink ref="D91" location="Spring!C41" display="What is proxy in Spring?"/>
+    <hyperlink ref="D91" location="Spring!C42" display="What is proxy in Spring?"/>
     <hyperlink ref="D79" location="Spring!C31" display="What is AOP?"/>
-    <hyperlink ref="J80" r:id="rId2"/>
-    <hyperlink ref="J78" r:id="rId3"/>
     <hyperlink ref="D78" location="Spring!C30" display="What is an IoC?"/>
     <hyperlink ref="D80" location="Spring!C32" display="What are Spring Beans?"/>
     <hyperlink ref="D77" location="Spring!C29" display="What are the types of IoC?"/>
     <hyperlink ref="D81" location="Spring!C33" display="What are various bean scopes?"/>
     <hyperlink ref="D73" location="General!C41" display="When do you use abstract?"/>
-    <hyperlink ref="J73" r:id="rId4"/>
     <hyperlink ref="D62" location="Git_Maven!D20" display="How to create dependencies among projects using Maven?"/>
     <hyperlink ref="D44" location="General!C21" display="Do you know how to debug in Eclipse ?"/>
-    <hyperlink ref="J10" r:id="rId5" location=":~:text=A%20fundamental%20difference%20between%20Kubernetes,production%20in%20an%20efficient%20manner."/>
-    <hyperlink ref="J11" r:id="rId6" location=":~:text=A%20Kubernetes%20deployment%20is%20a,which%20they%20should%20be%20updated."/>
     <hyperlink ref="D10" location="General!C7" display="How does kubernetes do?"/>
     <hyperlink ref="D11" location="General!C8" display="How does kubernetes help application deployment / support"/>
     <hyperlink ref="D97" location="General!C43" display="What is a Pod?"/>
-    <hyperlink ref="J12" r:id="rId7" location=":~:text=Google%20Cloud%20provides%20project-level,versions%2C%20or%20sync%20cluster%20configurations."/>
     <hyperlink ref="D12" location="General!C9" display="What is GC and how does it help distributed computing?"/>
-    <hyperlink ref="J13" r:id="rId8"/>
     <hyperlink ref="D13" location="General!C10" display="What do you know about GCP?"/>
     <hyperlink ref="D14" location="General!C11" display="How do Kubernetes sit on GC ?"/>
-    <hyperlink ref="J14" r:id="rId9"/>
     <hyperlink ref="D25" location="Spring!C10" display="@Resource"/>
     <hyperlink ref="D27" location="Spring!C12" display="@Autowired"/>
     <hyperlink ref="D98" location="Spring!C45" display=" @Inject"/>
     <hyperlink ref="D17" location="Spring!C9" display="How ports play important roles in Spring Boot"/>
     <hyperlink ref="D18" location="General!C14" display="What are batch files and shell scipts used for ?"/>
     <hyperlink ref="D26" location="Spring!C7" display=" @Lazy"/>
-    <hyperlink ref="J28" r:id="rId10"/>
+    <hyperlink ref="J28" r:id="rId1"/>
     <hyperlink ref="D28" location="Spring!C13" display=" @Value"/>
     <hyperlink ref="D29" location="Spring!C14" display=" @ApiOperation"/>
-    <hyperlink ref="J99" r:id="rId11"/>
     <hyperlink ref="D99" location="Spring!C46" display=" @ApiResponse"/>
     <hyperlink ref="D30" location="Spring!C15" display=" @PostMapping"/>
     <hyperlink ref="D31" location="Spring!C16" display=" @ApiParam"/>
-    <hyperlink ref="J33" r:id="rId12"/>
+    <hyperlink ref="J33" r:id="rId2"/>
     <hyperlink ref="D33" location="Spring!C18" display=" @RestCotroller"/>
-    <hyperlink ref="J34" r:id="rId13"/>
+    <hyperlink ref="J34" r:id="rId3"/>
     <hyperlink ref="D34" location="Spring!C19" display=" @RequestMapping"/>
+    <hyperlink ref="J36" r:id="rId4" location=":~:text=ResponseEntity%20represents%20an%20HTTP%20response,add%20headers%20and%20status%20code."/>
+    <hyperlink ref="D36" location="Spring!C20" display="ResponseEntity class and its importance ?"/>
+    <hyperlink ref="J40" r:id="rId5"/>
+    <hyperlink ref="D40" location="General!C18" display="How do you make a class abstract and what does it mean to make a class abstract, give an example."/>
+    <hyperlink ref="D41" location="Spring!C22" display=" @RequestBody"/>
+    <hyperlink ref="J42" r:id="rId6"/>
+    <hyperlink ref="J57" r:id="rId7"/>
+    <hyperlink ref="D57" location="General!C29" display="Have you heard of SOLR ?"/>
+    <hyperlink ref="D49" location="General!C26" display="@JsonIgnore ? what does this do?"/>
+    <hyperlink ref="J49" r:id="rId8"/>
+    <hyperlink ref="J48" r:id="rId9"/>
+    <hyperlink ref="D48" location="General!C25" display="Have you heard of Jackson annotations framework?"/>
+    <hyperlink ref="J47" r:id="rId10" location=":~:text=Serialization%20in%20Java%20allows%20us,be%20used%20in%20our%20program."/>
+    <hyperlink ref="D47" location="General!C19" display="Why do we Serialize the classes?"/>
+    <hyperlink ref="J56" r:id="rId11"/>
+    <hyperlink ref="D56" location="Spring!C23" display=" @SpringBootApplication"/>
+    <hyperlink ref="J59" r:id="rId12"/>
+    <hyperlink ref="D59" location="General!C31" display="How to unit test Springboot Application?"/>
+    <hyperlink ref="D64" location="Spring!C24" display=" @Service, what does this mean?"/>
+    <hyperlink ref="J65" r:id="rId13"/>
+    <hyperlink ref="D65" location="Spring!C25" display="How do you supply command line parameters to the Spring Boot Application?"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -9623,8 +9849,8 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9637,29 +9863,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>100</v>
+      <c r="A1" s="88" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
+      <c r="A2" s="88"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
+      <c r="A3" s="88"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
+      <c r="A4" s="88"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9671,7 +9897,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="300" x14ac:dyDescent="0.25">
@@ -9683,7 +9909,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -9695,7 +9921,7 @@
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -9707,7 +9933,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -9716,10 +9942,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9728,10 +9954,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>207</v>
+        <v>193</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -9740,10 +9966,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9752,10 +9978,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9763,11 +9989,11 @@
       <c r="B14" s="25">
         <v>9</v>
       </c>
-      <c r="C14" s="88" t="s">
-        <v>200</v>
+      <c r="C14" s="84" t="s">
+        <v>199</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9775,10 +10001,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -9786,10 +10012,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -9797,7 +10023,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="5"/>
     </row>
@@ -9806,10 +10032,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="315" x14ac:dyDescent="0.25">
@@ -9817,20 +10043,22 @@
         <v>14</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>15</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="62" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
@@ -9841,41 +10069,49 @@
       </c>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="135" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>17</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <v>18</v>
       </c>
       <c r="C23" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <v>19</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>20</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="62" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
@@ -9912,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="165" x14ac:dyDescent="0.25">
@@ -9923,7 +10159,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="240" x14ac:dyDescent="0.25">
@@ -9934,7 +10170,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="105" x14ac:dyDescent="0.25">
@@ -9945,7 +10181,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -9956,7 +10192,7 @@
         <v>38</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="195" x14ac:dyDescent="0.25">
@@ -9967,7 +10203,7 @@
         <v>39</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -10041,7 +10277,7 @@
         <v>48</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="120" x14ac:dyDescent="0.25">
@@ -10052,7 +10288,7 @@
         <v>49</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="90" x14ac:dyDescent="0.25">
@@ -10060,10 +10296,10 @@
         <v>39</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="62" t="s">
         <v>163</v>
-      </c>
-      <c r="D44" s="62" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="75" x14ac:dyDescent="0.25">
@@ -10071,10 +10307,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="45" x14ac:dyDescent="0.25">
@@ -10082,10 +10318,10 @@
         <v>41</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -10109,7 +10345,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -10123,8 +10359,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>100</v>
+      <c r="A1" s="88" t="s">
+        <v>99</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -10132,21 +10368,21 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
+      <c r="A2" s="88"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -10155,7 +10391,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>0</v>
@@ -10164,7 +10400,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -10173,13 +10409,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -10188,13 +10424,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -10203,13 +10439,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="36" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -10218,13 +10454,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
@@ -10232,13 +10468,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
@@ -10246,13 +10482,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -10260,13 +10496,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
@@ -10274,13 +10510,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
@@ -10288,13 +10524,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
@@ -10302,13 +10538,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="140.25" x14ac:dyDescent="0.25">
@@ -10319,10 +10555,10 @@
         <v>16</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="293.25" x14ac:dyDescent="0.25">
@@ -10333,10 +10569,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -10347,10 +10583,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -10361,10 +10597,10 @@
         <v>16</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="102" x14ac:dyDescent="0.25">
@@ -10378,7 +10614,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10392,7 +10628,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -10403,10 +10639,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="46" t="s">
         <v>111</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -10430,8 +10666,8 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="5" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10443,27 +10679,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
-        <v>100</v>
+      <c r="A1" s="88" t="s">
+        <v>99</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
+      <c r="A2" s="88"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -10471,13 +10707,13 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="216.75" x14ac:dyDescent="0.25">
@@ -10489,7 +10725,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10501,7 +10737,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
@@ -10512,7 +10748,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.25">
@@ -10520,10 +10756,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -10534,7 +10770,7 @@
         <v>59</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
@@ -10545,26 +10781,26 @@
         <v>60</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="80">
+      <c r="B12" s="77">
         <v>7</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="82"/>
+      <c r="D12" s="79"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="80">
+      <c r="B13" s="77">
         <v>8</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="82"/>
+      <c r="D13" s="79"/>
     </row>
     <row r="14" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B14" s="28">
@@ -10574,7 +10810,7 @@
         <v>67</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -10594,7 +10830,7 @@
         <v>77</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
@@ -10605,33 +10841,37 @@
         <v>79</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="77.25" x14ac:dyDescent="0.25">
       <c r="B18" s="28">
         <v>13</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="34"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="60" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="64.5" x14ac:dyDescent="0.25">
       <c r="B19" s="28">
         <v>14</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="34"/>
+        <v>81</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="28">
         <v>15</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="34"/>
     </row>
@@ -10639,11 +10879,11 @@
       <c r="B21" s="40">
         <v>16</v>
       </c>
-      <c r="C21" s="75" t="s">
-        <v>84</v>
+      <c r="C21" s="73" t="s">
+        <v>83</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
@@ -10651,7 +10891,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="34"/>
     </row>
@@ -10660,46 +10900,52 @@
         <v>18</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="34"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="28">
         <v>19</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="34"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B25" s="28">
         <v>20</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="34"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B26" s="28">
         <v>21</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="34"/>
+        <v>88</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="27" spans="2:4" ht="51" x14ac:dyDescent="0.25">
       <c r="B27" s="28">
         <v>22</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -10707,18 +10953,20 @@
         <v>23</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="35"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="D28" s="89"/>
+    </row>
+    <row r="29" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B29" s="28">
         <v>24</v>
       </c>
       <c r="C29" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="60" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="30" spans="2:4" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="28">
@@ -10728,7 +10976,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -10738,7 +10986,9 @@
       <c r="C31" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="34"/>
+      <c r="D31" s="34" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="32" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B32" s="28">
@@ -10748,7 +10998,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -10801,7 +11051,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38" s="34"/>
     </row>
@@ -10813,7 +11063,7 @@
         <v>26</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -10824,7 +11074,7 @@
         <v>27</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="77.25" x14ac:dyDescent="0.25">
@@ -10835,7 +11085,7 @@
         <v>28</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -10848,14 +11098,14 @@
       <c r="D42" s="35"/>
     </row>
     <row r="43" spans="2:4" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="76">
+      <c r="B43" s="74">
         <v>38</v>
       </c>
-      <c r="C43" s="77" t="s">
+      <c r="C43" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="76" t="s">
         <v>174</v>
-      </c>
-      <c r="D43" s="78" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Infopine_SpringBoot_Assignment_V1.0_24Dec2020.xlsx
+++ b/Infopine_SpringBoot_Assignment_V1.0_24Dec2020.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="287">
   <si>
     <t>Subject</t>
   </si>
@@ -158,21 +158,6 @@
   </si>
   <si>
     <t>What are the 4 ways of injecting Java Collection to Spring?</t>
-  </si>
-  <si>
-    <t>@Before</t>
-  </si>
-  <si>
-    <t>@AfterReturing</t>
-  </si>
-  <si>
-    <t>@AfterThrowing</t>
-  </si>
-  <si>
-    <t>@After</t>
-  </si>
-  <si>
-    <t>@Around</t>
   </si>
   <si>
     <t>Define Different Parts fo DispatcherServlet?</t>
@@ -3622,149 +3607,6 @@
     <t>https://www.w3schools.com/java/java_abstract.asp</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Configuration:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Annotating a class with the @Configuration annotation indicates that the class will be used by JavaConfig as a source of bean definitions.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Configuration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(defaultAutowire = Autowire.BY_TYPE, defaultLazy = Lazy.FALSE)
-public class DataSourceConfiguration {   /* bean definitions follow */  }
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Configuration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-public class AppConfig {
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Bean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    public TransferService transferService() {  return new TransferServiceImpl();    }  }
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>In appConfig.xml</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;beans&gt;
-    &lt;bean name="transferService" class="com.acme.TransferServiceImpl"/&gt;
-&lt;/beans&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>1. https://www.google.com/search?client=opera&amp;q=Do+you+know+how+to+debug+in+Eclipse+%3F&amp;sourceid=opera&amp;ie=UTF-8&amp;oe=UTF-8
 2. https://www.eclipse.org/community/eclipse_newsletter/2017/june/article1.php#:~:text=A%20Java%20program%20can%20be,Shift%20%2B%20D%2C%20J%20instead.</t>
   </si>
@@ -5047,9 +4889,6 @@
   </si>
   <si>
     <t>https://zetcode.com/springboot/responseentity/#:~:text=ResponseEntity%20represents%20an%20HTTP%20response,add%20headers%20and%20status%20code.</t>
-  </si>
-  <si>
-    <t>25-01-2021 Completed</t>
   </si>
   <si>
     <t>https://beginnersbook.com/2013/05/java-abstract-class-method/</t>
@@ -5208,6 +5047,679 @@
 Or
 2. mvn package
      java -jar target/&lt;FILENAME.JAR HERE&gt; --firstName=Sergey --lastName=Kargopolov </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Before</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @AfterReturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @AfterThrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @After</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Around</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Before annotated methods run exactly before the all methods matching with pointcut expression.</t>
+  </si>
+  <si>
+    <t>1. https://howtodoinjava.com/spring-aop/aspectj-before-annotation-example/
+2. https://examples.javacodegeeks.com/enterprise-java/spring/aop/spring-aop-afterreturning-advice-type-example/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @AfterReturning advice is executed after a join point completes normally, for example, if the method returns without throwing an exception.</t>
+  </si>
+  <si>
+    <t>https://howtodoinjava.com/spring-aop/aspectj-after-returning-annotation-example/</t>
+  </si>
+  <si>
+    <t>Completed - 02-02-2021</t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/spring-boot-aop-after-throwing-advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After throwing is an advice type in Spring AOP. It ensures that an advice runs if a method throws an exception. We use @AfterThrowing annotation to implement the after throwing advice.</t>
+  </si>
+  <si>
+    <t>After advice is used in Aspect-Oriented Programming to achieve the cross-cutting. It is an advice type which ensures that an advice runs after the method execution. We use @After annotation to implement the after advice</t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/spring-boot-aop-after-advice</t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/spring-boot-aop-around-advice</t>
+  </si>
+  <si>
+    <t>Around advice is represented by @Around annotation. It executes before and after a join point. It is the most powerful advice. It also provides more control for end-user to get deal with ProceedingJoinPoint.</t>
+  </si>
+  <si>
+    <t>Bean life cycle is managed by the spring container. When we run the program then, first of all, the spring container gets started. After that, the container creates the instance of a bean as per the request and then dependencies are injected. And finally, the bean is destroyed when the spring container is closed</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/bean-life-cycle-in-java-spring/#:~:text=Bean%20life%20cycle%20is%20managed,the%20spring%20container%20is%20closed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While the @Component annotation is used to decorate classes that are auto-detected by Spring scanning, the @Bean annotation is used to explicitly declare a bean creation.
+The @Value annotation is used to set the value of the app.name property into the appName parameter.
+</t>
+  </si>
+  <si>
+    <t>https://zetcode.com/springboot/bean/#:~:text=While%20the%20%40Component%20annotation%20is,name%3A%20%7B%7D"%2C%20appName.</t>
+  </si>
+  <si>
+    <t>DispatcherServlet acts as front controller for Spring based web applications. 
+It provides a mechanism for request processing where actual work is performed by configurable, delegate components. 
+It is inherited from javax.servlet.http.HttpServlet, it is typically configured in the web.xml file.</t>
+  </si>
+  <si>
+    <t>https://howtodoinjava.com/spring5/webmvc/spring-dispatcherservlet-tutorial/</t>
+  </si>
+  <si>
+    <t>Reduced Dependencies
+Reduced Dependency Carrying
+More Reusable Code
+More Testable Code
+More Readable Code</t>
+  </si>
+  <si>
+    <t>1. http://tutorials.jenkov.com/dependency-injection/dependency-injection-benefits.html#:~:text=Dependency%20injection%20moves%20the%20dependencies,all%20visible%20in%20the%20interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List With @Autowired
+ Set With Constructor Injection
+ Map With Setter Injection
+ Injecting Bean References</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/spring-injecting-collections</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring Boot Starters:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The main responsibility of Spring Boot Starter is to combine a group of common or related dependencies into single dependencies. Spring Boot starters can help to reduce the number of manually added dependencies just by adding one dependency. So instead of manually specifying the dependencies just add one starter. Examples are spring-boot-starter-web, spring-boot-starter-test, spring-boot-starter-data-jpa, etc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring Boot AutoConfigurator:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> One of the common complaint with Spring is, we need to make lot of XML based configurations. Spring Boot AutoConfigurator will simplify all these XML based configurations. It also reduces the number of annotations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring Boot CLI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Spring Boot CLI(Command Line Interface) is a Spring Boot software to run and test Spring Boot applications from command prompt. When we run Spring Boot applications using CLI, then it internally uses Spring Boot Starter and Spring Boot AutoConfigurate components to resolve all dependencies and execute the application.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spring Boot Actuator:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Spring Boot Actuator is a sub-project of Spring Boot. It adds several production grade services to your application with little effort on your part. Actuators enable production-ready features to a Spring Boot application, without having to actually implement these things yourself. The Spring Boot Actuator is mainly used to get the internals of running application like health, metrics, info, dump, environment, etc. which is similar to your production environment monitoring setup.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://java2novice.com/java_interview_questions/spring-boot-key-components/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Application Module: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The application module is the main module of the project. It contains the application class in which the main method is defined that is necessary to run the Spring Boot Application. It also contains application configuration properties, Controller, views, and resources.
+The Application Module includes Model Module, Service Implementation Module as dependency that contains Model Module, Repository Module, and Service API module.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Model Module: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Model Module contains Entities and Visual Objects to be used in the project.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Repository Module: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Repository module contains repositories to be used in the project. It depends on the Model Module.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Service API Module: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Service API module contains all project services. It also depends on Model Module.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Service Implementation Module: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Service Implementation module implements the service. It depends on Repository Module and Service API Module.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/spring-boot-multi-module-project#:~:text=It%20also%20contains%20application%20configuration,Module%2C%20and%20Service%20API%20module.</t>
+  </si>
+  <si>
+    <r>
+      <t>A design patterns are well-proved solution for solving the specific problem/task.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Advantage of design pattern:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+They are reusable in multiple projects.
+They provide the solutions that help to define the system architecture.
+They capture the software engineering experiences.
+They provide transparency to the design of an application.
+They are well-proved and testified solutions since they have been built upon the knowledge and experience of expert software developers.
+Design patterns don?t guarantee an absolute solution to a problem. They provide clarity to the system architecture and the possibility of building a better system.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Creational Design Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Factory Pattern
+ Abstract Factory Pattern
+ Singleton Pattern
+ Prototype Pattern
+ Builder Pattern.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2. Structural Design Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Adapter Pattern
+ Bridge Pattern
+ Composite Pattern
+ Decorator Pattern
+ Facade Pattern
+ Flyweight Pattern
+ Proxy Pattern
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3. Behavioral Design Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ Chain Of Responsibility Pattern
+ Command Pattern
+ Interpreter Pattern
+ Iterator Pattern
+ Mediator Pattern
+ Memento Pattern
+ Observer Pattern
+ State Pattern
+ Strategy Pattern
+ Template Pattern
+ Visitor Pattern</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/design-patterns-in-java</t>
+  </si>
+  <si>
+    <t>1. Technological Necessities: Know the purpose of the application, your business goals, and business requirements, and have an implementation process/plan
+2. Software Development/Maintenance Processes – Find a developer with a software development methodology to ensure a planned and documented approach.
+3. Return on Investment
+4. Impact on Staff</t>
+  </si>
+  <si>
+    <t>http://blog.calanceus.com/4-strategic-factors-to-consider-when-building-a-custom-application</t>
+  </si>
+  <si>
+    <t>1. https://www.baeldung.com/spring-boot-logging
+2. https://reflectoring.io/springboot-logging/</t>
+  </si>
+  <si>
+    <t>Logging is a vital part of all applications and brings benefits not only to us developers but also to ops and business people. Spring Boot applications need to capture relevant log data to help us diagnose and fix problems and measure business metrics.
+The Spring Boot framework is preconfigured with Logback as a default implementation in its opinionated framework.
+1. Zero Configuration Logging
+2. Logback Configuration Logging
+3. Log4j2 Configuration Logging
+4. Log4j2 Without SLF4J
+5. Logging With Lombok
+6. Beware of Java Util Logging
+7. JANSI on Windows</t>
+  </si>
+  <si>
+    <t>https://avinetworks.com/glossary/container-deployment/#:~:text=Container%20deployment%20is%20a%20method,environments%20with%20speed%20at%20scale.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Container deployment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is a method for quickly building and releasing complex applications. Docker container deployment is a popular technology that gives developers the ability to construct application environments with speed at scale. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Benefits of Container Deployment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+• Run many individual applications on the same number of servers.
+• Deliver ready-to-run applications in containers that hold all the codes, libraries and dependencies any application needs.
+• Deploy easier and more secure deployment and management of applications.
+• Modify an application and instantly run it anywhere.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/11677670/when-exactly-are-we-supposed-to-use-public-static-final-string#:~:text=final%20indicates%20that%20the%20value,to%20use%20it)%2C%20and%20that</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">final indicates that the value of the variable won't change - in other words, a constant whose value can't be modified after it is declared.
+Use public final static String when you want to create a String that:
+belongs to the class (static: no instance necessary to use it), and that
+won't change (final), for instance when you want to define a String constant that will be available to all instances of the class, and to other objects using the class.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+public final static String MY_CONSTANT = "SomeValue";
+// ... in some other code, possibly in another object, use the constant:
+if (input.equals(MyClass.MY_CONSTANT)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Similarly:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+public static final int ERROR_CODE = 127;
+It isn't required to use final, but it keeps a constant from being changed inadvertently during program execution, and serves as an indicator that the variable is a constant.
+Even if the constant will only be used - read - in the current class and/or in only one place, it's good practice to declare all constants as final: it's clearer, and during the lifetime of the code the constant may end up being used in more than one place.
+Furthermore using final may allow the implementation to perform some optimization, e.g. by inlining an actual value where the constant is used.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@RestController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation is used to define the RESTful web services. It serves JSON, XML and custom response.
+  @RestController
+   public class ProductServiceController {  }
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@RequestMapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation is used to define the Request URI to access the REST Endpoints. We can define Request method to consume and produce object. The default request method is GET.
+     @RequestMapping(value = "/products")
+      public ResponseEntity&lt;Object&gt; getProducts() { }
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@RequestBody</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation is used to define the request body content type.
+       public ResponseEntity&lt;Object&gt; createProduct(@RequestBody Product product) { }
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@PathVariable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation is used to define the custom or dynamic request URI. The Path variable in request URI is defined as curly braces {}
+      public ResponseEntity&lt;Object&gt; updateProduct(@PathVariable("id") String id) { }
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@RequestParam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> annotation is used to read the request parameters from the Request URL. By default, it is a required parameter.
+     public ResponseEntity&lt;Object&gt; getProduct(
+       @RequestParam(value = "name", required = false, defaultValue = "honey") String name) { }</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/spring_boot/spring_boot_building_restful_web_services.htm</t>
+  </si>
+  <si>
+    <t>Completed - 25-01-2021</t>
   </si>
 </sst>
 </file>
@@ -5545,7 +6057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5603,9 +6115,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5802,18 +6311,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7028,68 +7560,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C6:G10" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C6:G10" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <tableColumns count="5">
-    <tableColumn id="1" name="Sr.No" dataDxfId="40"/>
-    <tableColumn id="2" name="Prepared by " dataDxfId="39"/>
-    <tableColumn id="3" name="Version" dataDxfId="38"/>
-    <tableColumn id="4" name="Created" dataDxfId="37"/>
-    <tableColumn id="5" name="Last Modified" dataDxfId="36"/>
+    <tableColumn id="1" name="Sr.No" dataDxfId="42"/>
+    <tableColumn id="2" name="Prepared by " dataDxfId="41"/>
+    <tableColumn id="3" name="Version" dataDxfId="40"/>
+    <tableColumn id="4" name="Created" dataDxfId="39"/>
+    <tableColumn id="5" name="Last Modified" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B5:K99" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B5:K99" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="B5:K99"/>
+  <sortState ref="B6:K99">
+    <sortCondition ref="B5:B99"/>
+  </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Sr.No" dataDxfId="32"/>
-    <tableColumn id="2" name="Subject" dataDxfId="31" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Questions / Assignments" dataDxfId="30"/>
-    <tableColumn id="4" name="Status" dataDxfId="29"/>
-    <tableColumn id="5" name="Time" dataDxfId="28"/>
-    <tableColumn id="6" name="Start date" dataDxfId="27"/>
-    <tableColumn id="7" name="Due on" dataDxfId="26"/>
-    <tableColumn id="8" name="Sathyaseelan Status" dataDxfId="25"/>
-    <tableColumn id="10" name="Referrence URL" dataDxfId="24"/>
-    <tableColumn id="9" name="Queries/Remarks" dataDxfId="23"/>
+    <tableColumn id="1" name="Sr.No" dataDxfId="34"/>
+    <tableColumn id="2" name="Subject" dataDxfId="33" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Questions / Assignments" dataDxfId="32"/>
+    <tableColumn id="4" name="Status" dataDxfId="31"/>
+    <tableColumn id="5" name="Time" dataDxfId="30"/>
+    <tableColumn id="6" name="Start date" dataDxfId="29"/>
+    <tableColumn id="7" name="Due on" dataDxfId="28"/>
+    <tableColumn id="8" name="Sathyaseelan Status" dataDxfId="27"/>
+    <tableColumn id="10" name="Referrence URL" dataDxfId="26"/>
+    <tableColumn id="9" name="Queries/Remarks" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B5:D46" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B5:D46" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
   <tableColumns count="3">
-    <tableColumn id="1" name="Sr.No." dataDxfId="18"/>
-    <tableColumn id="2" name="Questions / Assignments" dataDxfId="17"/>
-    <tableColumn id="3" name="Answer [Its not exact, but key to recal]" dataDxfId="16"/>
+    <tableColumn id="1" name="Sr.No." dataDxfId="20"/>
+    <tableColumn id="2" name="Questions / Assignments" dataDxfId="19"/>
+    <tableColumn id="3" name="Answer [Its not exact, but key to recal]" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B5:E22" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B5:E22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="B5:E22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Sr.No." dataDxfId="11"/>
-    <tableColumn id="2" name="Subject" dataDxfId="10"/>
-    <tableColumn id="3" name="Questions / Assignments" dataDxfId="9" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" name="Answer [Its not exact, but key to recal]" dataDxfId="8"/>
+    <tableColumn id="1" name="Sr.No." dataDxfId="13"/>
+    <tableColumn id="2" name="Subject" dataDxfId="12"/>
+    <tableColumn id="3" name="Questions / Assignments" dataDxfId="11" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="Answer [Its not exact, but key to recal]" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B5:D43" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B5:D43" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="B5:D43"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Sr.No." dataDxfId="2"/>
-    <tableColumn id="2" name="Questions / Assignments" dataDxfId="1"/>
-    <tableColumn id="3" name="Answer [Its not exact, but key to recal]" dataDxfId="0"/>
+    <tableColumn id="1" name="Sr.No." dataDxfId="4"/>
+    <tableColumn id="2" name="Questions / Assignments" dataDxfId="3"/>
+    <tableColumn id="3" name="Answer [Its not exact, but key to recal]" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7361,7 +7896,7 @@
   <dimension ref="C6:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7375,51 +7910,51 @@
   <sheetData>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="G6" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="50">
+      <c r="D7" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="49">
         <v>44189</v>
       </c>
-      <c r="G7" s="49"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="9">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="F8" s="8">
         <v>44189</v>
       </c>
       <c r="G8" s="10">
-        <v>44217</v>
+        <v>44229</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
@@ -7450,8 +7985,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7470,49 +8005,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
+      <c r="A1" s="70"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="K5" s="68" t="s">
-        <v>148</v>
+      <c r="I5" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>50</v>
+      <c r="D6" s="90" t="s">
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -7522,21 +8057,21 @@
         <v>9</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
+      <c r="I6" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>2</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>52</v>
+      <c r="C7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -7546,21 +8081,21 @@
         <v>9</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="21" t="s">
-        <v>118</v>
+      <c r="I7" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>3</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="53" t="s">
-        <v>53</v>
+      <c r="D8" s="90" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -7570,21 +8105,21 @@
         <v>9</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="21" t="s">
-        <v>118</v>
+      <c r="I8" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>4</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>54</v>
+      <c r="D9" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -7594,21 +8129,21 @@
         <v>9</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="21" t="s">
-        <v>145</v>
+      <c r="I9" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="39" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>5</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>56</v>
+      <c r="C10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -7618,23 +8153,23 @@
         <v>9</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10" s="86" t="s">
-        <v>171</v>
+      <c r="I10" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="91" t="s">
+        <v>165</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="39" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>6</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>57</v>
+      <c r="C11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -7644,23 +8179,23 @@
         <v>9</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="J11" s="86" t="s">
-        <v>172</v>
-      </c>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="39" x14ac:dyDescent="0.25">
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>7</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>177</v>
+      <c r="C12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>171</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -7670,23 +8205,23 @@
         <v>9</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="J12" s="86" t="s">
-        <v>176</v>
+      <c r="I12" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="91" t="s">
+        <v>170</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>8</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>59</v>
+      <c r="C13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -7696,23 +8231,23 @@
         <v>9</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J13" s="86" t="s">
-        <v>181</v>
+      <c r="I13" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" s="91" t="s">
+        <v>175</v>
       </c>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>9</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>60</v>
+      <c r="C14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -7722,23 +8257,23 @@
         <v>9</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J14" s="86" t="s">
-        <v>184</v>
+      <c r="I14" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="91" t="s">
+        <v>178</v>
       </c>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>10</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>62</v>
+      <c r="C15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
@@ -7753,14 +8288,14 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>11</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>64</v>
+      <c r="C16" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -7771,20 +8306,20 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="86" t="s">
-        <v>134</v>
+      <c r="J16" s="91" t="s">
+        <v>129</v>
       </c>
       <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>12</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>65</v>
+      <c r="D17" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
@@ -7794,21 +8329,21 @@
         <v>9</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="21" t="s">
-        <v>196</v>
+      <c r="I17" s="20" t="s">
+        <v>190</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>13</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>67</v>
+      <c r="C18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
@@ -7818,21 +8353,21 @@
         <v>9</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="21" t="s">
-        <v>196</v>
+      <c r="I18" s="20" t="s">
+        <v>190</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>14</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>69</v>
+      <c r="C19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
@@ -7842,21 +8377,21 @@
         <v>9</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="21" t="s">
-        <v>118</v>
+      <c r="I19" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>15</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>70</v>
+      <c r="C20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
@@ -7866,21 +8401,21 @@
         <v>9</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="21" t="s">
-        <v>123</v>
+      <c r="I20" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>16</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>71</v>
+      <c r="C21" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
@@ -7890,21 +8425,21 @@
         <v>9</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="21" t="s">
-        <v>123</v>
+      <c r="I21" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>17</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>72</v>
+      <c r="C22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
@@ -7914,21 +8449,21 @@
         <v>9</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="21" t="s">
-        <v>123</v>
+      <c r="I22" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>18</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="40" t="s">
         <v>68</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>73</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
@@ -7938,21 +8473,21 @@
         <v>9</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="21" t="s">
-        <v>127</v>
+      <c r="I23" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <v>19</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>74</v>
+      <c r="C24" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
@@ -7962,21 +8497,21 @@
         <v>9</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="21" t="s">
-        <v>127</v>
+      <c r="I24" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>20</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="41" t="s">
-        <v>188</v>
+      <c r="D25" s="40" t="s">
+        <v>182</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
@@ -7986,21 +8521,21 @@
         <v>9</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="21" t="s">
-        <v>189</v>
+      <c r="I25" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <v>21</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>193</v>
+      <c r="D26" s="40" t="s">
+        <v>187</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
@@ -8010,23 +8545,23 @@
         <v>9</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="J26" s="86" t="s">
-        <v>205</v>
+      <c r="I26" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" s="91" t="s">
+        <v>199</v>
       </c>
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="23">
+      <c r="B27" s="22">
         <v>22</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="41" t="s">
-        <v>192</v>
+      <c r="D27" s="40" t="s">
+        <v>186</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
@@ -8036,21 +8571,21 @@
         <v>9</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="21" t="s">
-        <v>189</v>
+      <c r="I27" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>23</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="83" t="s">
-        <v>198</v>
+      <c r="D28" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
@@ -8060,23 +8595,23 @@
         <v>9</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="J28" s="83" t="s">
-        <v>208</v>
+      <c r="I28" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" s="82" t="s">
+        <v>202</v>
       </c>
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="2:11" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>24</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="41" t="s">
-        <v>199</v>
+      <c r="D29" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
@@ -8086,23 +8621,23 @@
         <v>9</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="J29" s="86" t="s">
-        <v>213</v>
+      <c r="I29" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" s="91" t="s">
+        <v>207</v>
       </c>
       <c r="K29" s="7"/>
     </row>
     <row r="30" spans="2:11" ht="39" x14ac:dyDescent="0.25">
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <v>25</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="41" t="s">
-        <v>200</v>
+      <c r="D30" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -8112,23 +8647,23 @@
         <v>9</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="J30" s="86" t="s">
-        <v>216</v>
+      <c r="I30" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" s="91" t="s">
+        <v>210</v>
       </c>
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <v>26</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="41" t="s">
-        <v>201</v>
+      <c r="D31" s="40" t="s">
+        <v>195</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
@@ -8138,23 +8673,23 @@
         <v>9</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="22">
+        <v>27</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="77" t="s">
         <v>196</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="23">
-        <v>27</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>202</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>8</v>
@@ -8169,14 +8704,14 @@
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="23">
+      <c r="B33" s="22">
         <v>28</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="41" t="s">
-        <v>203</v>
+      <c r="D33" s="40" t="s">
+        <v>197</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
@@ -8186,23 +8721,23 @@
         <v>9</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="J33" s="41" t="s">
-        <v>218</v>
+      <c r="I33" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>212</v>
       </c>
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="23">
+      <c r="B34" s="22">
         <v>29</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="41" t="s">
-        <v>204</v>
+      <c r="D34" s="40" t="s">
+        <v>198</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
@@ -8212,23 +8747,23 @@
         <v>9</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="J34" s="41" t="s">
-        <v>220</v>
+      <c r="I34" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J34" s="40" t="s">
+        <v>214</v>
       </c>
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <v>30</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>75</v>
+      <c r="D35" s="77" t="s">
+        <v>70</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
@@ -8243,14 +8778,14 @@
       <c r="K35" s="7"/>
     </row>
     <row r="36" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B36" s="23">
+      <c r="B36" s="22">
         <v>31</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="87" t="s">
-        <v>76</v>
+      <c r="D36" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
@@ -8260,23 +8795,23 @@
         <v>9</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J36" s="87" t="s">
-        <v>224</v>
+      <c r="I36" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" s="86" t="s">
+        <v>218</v>
       </c>
       <c r="K36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="23">
+      <c r="B37" s="22">
         <v>32</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="41" t="s">
-        <v>77</v>
+      <c r="D37" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
@@ -8286,21 +8821,21 @@
         <v>9</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="21" t="s">
-        <v>142</v>
+      <c r="I37" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="23">
+    <row r="38" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="22">
         <v>33</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="22" t="s">
-        <v>78</v>
+      <c r="D38" s="40" t="s">
+        <v>73</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>8</v>
@@ -8310,19 +8845,23 @@
         <v>9</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="I38" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" s="86" t="s">
+        <v>285</v>
+      </c>
       <c r="K38" s="7"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="23">
+      <c r="B39" s="22">
         <v>34</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="41" t="s">
-        <v>79</v>
+      <c r="D39" s="40" t="s">
+        <v>74</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>8</v>
@@ -8332,21 +8871,21 @@
         <v>9</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="21" t="s">
-        <v>142</v>
+      <c r="I39" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="23">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="22">
         <v>35</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="87" t="s">
-        <v>80</v>
+      <c r="D40" s="40" t="s">
+        <v>75</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>8</v>
@@ -8356,23 +8895,23 @@
         <v>9</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J40" s="87" t="s">
-        <v>226</v>
+      <c r="I40" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" s="86" t="s">
+        <v>219</v>
       </c>
       <c r="K40" s="7"/>
     </row>
     <row r="41" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B41" s="23">
+      <c r="B41" s="22">
         <v>36</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="87" t="s">
-        <v>228</v>
+      <c r="D41" s="40" t="s">
+        <v>221</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>8</v>
@@ -8382,23 +8921,23 @@
         <v>9</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>225</v>
+      <c r="I41" s="20" t="s">
+        <v>286</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K41" s="7"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="23">
+      <c r="B42" s="22">
         <v>37</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="22" t="s">
-        <v>81</v>
+      <c r="D42" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>8</v>
@@ -8408,23 +8947,23 @@
         <v>9</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J42" s="87" t="s">
-        <v>231</v>
+      <c r="I42" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" s="86" t="s">
+        <v>224</v>
       </c>
       <c r="K42" s="7"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="23">
+      <c r="B43" s="22">
         <v>38</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="22" t="s">
-        <v>82</v>
+      <c r="D43" s="77" t="s">
+        <v>77</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
@@ -8439,48 +8978,48 @@
       <c r="K43" s="7"/>
     </row>
     <row r="44" spans="2:11" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B44" s="63">
+      <c r="B44" s="62">
         <v>39</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="64" t="s">
+      <c r="D44" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65" t="s">
+      <c r="F44" s="63"/>
+      <c r="G44" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="64"/>
-      <c r="I44" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="J44" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="K44" s="67" t="s">
-        <v>158</v>
+      <c r="H44" s="63"/>
+      <c r="I44" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="J44" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="K44" s="66" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="23">
+      <c r="B45" s="22">
         <v>40</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="78" t="s">
-        <v>84</v>
+      <c r="D45" s="77" t="s">
+        <v>79</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="7"/>
-      <c r="G45" s="51">
+      <c r="G45" s="50">
         <v>44190</v>
       </c>
       <c r="H45" s="7"/>
@@ -8489,14 +9028,14 @@
       <c r="K45" s="7"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="23">
+      <c r="B46" s="22">
         <v>41</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="78" t="s">
-        <v>85</v>
+      <c r="D46" s="77" t="s">
+        <v>80</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>8</v>
@@ -8511,14 +9050,14 @@
       <c r="K46" s="7"/>
     </row>
     <row r="47" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B47" s="23">
+      <c r="B47" s="22">
         <v>42</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="87" t="s">
-        <v>86</v>
+      <c r="D47" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>8</v>
@@ -8528,23 +9067,23 @@
         <v>9</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="J47" s="87" t="s">
-        <v>240</v>
+      <c r="I47" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J47" s="86" t="s">
+        <v>233</v>
       </c>
       <c r="K47" s="7"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="23">
+      <c r="B48" s="22">
         <v>43</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="87" t="s">
-        <v>87</v>
+      <c r="D48" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
@@ -8554,23 +9093,23 @@
         <v>9</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="J48" s="87" t="s">
-        <v>237</v>
+      <c r="I48" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J48" s="86" t="s">
+        <v>230</v>
       </c>
       <c r="K48" s="7"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="23">
+      <c r="B49" s="22">
         <v>44</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="87" t="s">
-        <v>88</v>
+      <c r="D49" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>8</v>
@@ -8580,23 +9119,23 @@
         <v>9</v>
       </c>
       <c r="H49" s="1"/>
-      <c r="I49" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="J49" s="87" t="s">
-        <v>237</v>
+      <c r="I49" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J49" s="86" t="s">
+        <v>230</v>
       </c>
       <c r="K49" s="7"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="23">
+      <c r="B50" s="22">
         <v>45</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="41" t="s">
-        <v>89</v>
+      <c r="D50" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
@@ -8606,21 +9145,21 @@
         <v>9</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="21" t="s">
-        <v>127</v>
+      <c r="I50" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="23">
+      <c r="B51" s="22">
         <v>46</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="22" t="s">
-        <v>90</v>
+      <c r="D51" s="77" t="s">
+        <v>85</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>8</v>
@@ -8635,14 +9174,14 @@
       <c r="K51" s="7"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="23">
+      <c r="B52" s="22">
         <v>47</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="53" t="s">
-        <v>91</v>
+      <c r="D52" s="52" t="s">
+        <v>86</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>8</v>
@@ -8652,21 +9191,21 @@
         <v>9</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="21" t="s">
-        <v>127</v>
+      <c r="I52" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="23">
+      <c r="B53" s="22">
         <v>48</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="53" t="s">
-        <v>92</v>
+      <c r="D53" s="52" t="s">
+        <v>87</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>8</v>
@@ -8676,21 +9215,21 @@
         <v>9</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="21" t="s">
-        <v>118</v>
+      <c r="I53" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="23">
+      <c r="B54" s="22">
         <v>49</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="53" t="s">
-        <v>93</v>
+      <c r="D54" s="52" t="s">
+        <v>88</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>8</v>
@@ -8700,21 +9239,21 @@
         <v>9</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="21" t="s">
-        <v>118</v>
+      <c r="I54" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="23">
+      <c r="B55" s="22">
         <v>50</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="53" t="s">
-        <v>94</v>
+      <c r="D55" s="90" t="s">
+        <v>89</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>8</v>
@@ -8724,21 +9263,21 @@
         <v>9</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="21" t="s">
-        <v>118</v>
+      <c r="I55" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
     <row r="56" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="23">
+      <c r="B56" s="22">
         <v>51</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="87" t="s">
-        <v>241</v>
+      <c r="D56" s="40" t="s">
+        <v>234</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>8</v>
@@ -8748,22 +9287,22 @@
         <v>9</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="21" t="s">
+      <c r="I56" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J56" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="J56" s="87" t="s">
-        <v>242</v>
-      </c>
       <c r="K56" s="7"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="23">
+      <c r="B57" s="22">
         <v>52</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="87" t="s">
+      <c r="D57" s="40" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -8774,22 +9313,22 @@
         <v>9</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="J57" s="87" t="s">
-        <v>234</v>
+      <c r="I57" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J57" s="86" t="s">
+        <v>227</v>
       </c>
       <c r="K57" s="7"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="23">
+      <c r="B58" s="22">
         <v>53</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="D58" s="40" t="s">
         <v>12</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -8800,20 +9339,20 @@
         <v>9</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="21" t="s">
-        <v>127</v>
+      <c r="I58" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="23">
+      <c r="B59" s="22">
         <v>54</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="87" t="s">
+      <c r="D59" s="40" t="s">
         <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -8824,22 +9363,22 @@
         <v>9</v>
       </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="J59" s="87" t="s">
-        <v>245</v>
+      <c r="I59" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J59" s="86" t="s">
+        <v>238</v>
       </c>
       <c r="K59" s="7"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="23">
+      <c r="B60" s="22">
         <v>55</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -8850,20 +9389,20 @@
         <v>9</v>
       </c>
       <c r="H60" s="1"/>
-      <c r="I60" s="21" t="s">
-        <v>127</v>
+      <c r="I60" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="23">
+      <c r="B61" s="22">
         <v>56</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="77" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -8874,46 +9413,46 @@
         <v>9</v>
       </c>
       <c r="H61" s="1"/>
-      <c r="I61" s="26"/>
+      <c r="I61" s="25"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
     </row>
-    <row r="62" spans="2:11" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="63">
+    <row r="62" spans="2:11" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="62">
         <v>57</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="72" t="s">
+      <c r="D62" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="43" t="s">
+      <c r="E62" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="43"/>
-      <c r="G62" s="66" t="s">
+      <c r="F62" s="42"/>
+      <c r="G62" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H62" s="43"/>
-      <c r="I62" s="21" t="s">
+      <c r="H62" s="42"/>
+      <c r="I62" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="J62" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="J62" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="K62" s="43" t="s">
-        <v>157</v>
+      <c r="K62" s="42" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="23">
+      <c r="B63" s="22">
         <v>58</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="52" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -8924,21 +9463,21 @@
         <v>9</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="21" t="s">
-        <v>118</v>
+      <c r="I63" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
     </row>
     <row r="64" spans="2:11" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B64" s="23">
+      <c r="B64" s="22">
         <v>59</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="87" t="s">
-        <v>246</v>
+      <c r="D64" s="40" t="s">
+        <v>239</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>8</v>
@@ -8948,22 +9487,22 @@
         <v>9</v>
       </c>
       <c r="H64" s="1"/>
-      <c r="I64" s="21" t="s">
-        <v>235</v>
+      <c r="I64" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K64" s="7"/>
     </row>
     <row r="65" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="23">
+      <c r="B65" s="22">
         <v>60</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="87" t="s">
+      <c r="D65" s="40" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -8974,22 +9513,22 @@
         <v>9</v>
       </c>
       <c r="H65" s="1"/>
-      <c r="I65" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="J65" s="87" t="s">
-        <v>249</v>
+      <c r="I65" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J65" s="86" t="s">
+        <v>242</v>
       </c>
       <c r="K65" s="7"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="23">
+    <row r="66" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B66" s="22">
         <v>61</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="40" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -9000,18 +9539,22 @@
         <v>9</v>
       </c>
       <c r="H66" s="1"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="7"/>
+      <c r="I66" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J66" s="86" t="s">
+        <v>280</v>
+      </c>
       <c r="K66" s="7"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="23">
+    <row r="67" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B67" s="22">
         <v>62</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="40" t="s">
         <v>23</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -9022,18 +9565,22 @@
         <v>9</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="7"/>
+      <c r="I67" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J67" s="86" t="s">
+        <v>282</v>
+      </c>
       <c r="K67" s="7"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="23">
+    <row r="68" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="22">
         <v>63</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="40" t="s">
         <v>24</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -9044,18 +9591,22 @@
         <v>9</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="7"/>
+      <c r="I68" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J68" s="88" t="s">
+        <v>278</v>
+      </c>
       <c r="K68" s="7"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="23">
+    <row r="69" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="22">
         <v>64</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="40" t="s">
         <v>25</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -9066,19 +9617,23 @@
         <v>9</v>
       </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="7"/>
+      <c r="I69" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J69" s="86" t="s">
+        <v>277</v>
+      </c>
       <c r="K69" s="7"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="23">
+      <c r="B70" s="22">
         <v>65</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="22" t="s">
-        <v>143</v>
+      <c r="D70" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>8</v>
@@ -9088,18 +9643,22 @@
         <v>9</v>
       </c>
       <c r="H70" s="1"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="7"/>
+      <c r="I70" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J70" s="86" t="s">
+        <v>275</v>
+      </c>
       <c r="K70" s="7"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="23">
+      <c r="B71" s="22">
         <v>66</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="41" t="s">
+      <c r="D71" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -9110,20 +9669,20 @@
         <v>9</v>
       </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="21" t="s">
-        <v>142</v>
+      <c r="I71" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="23">
+      <c r="B72" s="22">
         <v>67</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="41" t="s">
+      <c r="D72" s="40" t="s">
         <v>27</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -9134,20 +9693,20 @@
         <v>9</v>
       </c>
       <c r="H72" s="1"/>
-      <c r="I72" s="21" t="s">
-        <v>142</v>
+      <c r="I72" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="23">
+      <c r="B73" s="22">
         <v>68</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="41" t="s">
+      <c r="D73" s="40" t="s">
         <v>28</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -9158,22 +9717,22 @@
         <v>9</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="J73" s="86" t="s">
-        <v>167</v>
+      <c r="I73" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J73" s="85" t="s">
+        <v>162</v>
       </c>
       <c r="K73" s="7"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="23">
+    <row r="74" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B74" s="22">
         <v>69</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -9184,18 +9743,22 @@
         <v>9</v>
       </c>
       <c r="H74" s="1"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="7"/>
+      <c r="I74" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J74" s="86" t="s">
+        <v>273</v>
+      </c>
       <c r="K74" s="7"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="23">
+    <row r="75" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B75" s="22">
         <v>70</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="40" t="s">
         <v>30</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -9206,18 +9769,22 @@
         <v>9</v>
       </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="7"/>
+      <c r="I75" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J75" s="86" t="s">
+        <v>271</v>
+      </c>
       <c r="K75" s="7"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="23">
+    <row r="76" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B76" s="22">
         <v>71</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="40" t="s">
         <v>32</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -9228,18 +9795,22 @@
         <v>9</v>
       </c>
       <c r="H76" s="1"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="7"/>
+      <c r="I76" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="K76" s="7"/>
     </row>
     <row r="77" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B77" s="23">
+      <c r="B77" s="22">
         <v>72</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="41" t="s">
+      <c r="D77" s="40" t="s">
         <v>34</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -9250,22 +9821,22 @@
         <v>9</v>
       </c>
       <c r="H77" s="1"/>
-      <c r="I77" s="21" t="s">
-        <v>145</v>
+      <c r="I77" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K77" s="7"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="23">
+      <c r="B78" s="22">
         <v>73</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="40" t="s">
         <v>35</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -9276,22 +9847,22 @@
         <v>9</v>
       </c>
       <c r="H78" s="1"/>
-      <c r="I78" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="J78" s="86" t="s">
-        <v>153</v>
+      <c r="I78" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="J78" s="85" t="s">
+        <v>148</v>
       </c>
       <c r="K78" s="7"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="23">
+      <c r="B79" s="22">
         <v>74</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="41" t="s">
+      <c r="D79" s="40" t="s">
         <v>36</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -9302,20 +9873,20 @@
         <v>9</v>
       </c>
       <c r="H79" s="1"/>
-      <c r="I79" s="21" t="s">
-        <v>145</v>
+      <c r="I79" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="23">
+      <c r="B80" s="22">
         <v>75</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D80" s="40" t="s">
         <v>37</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -9326,22 +9897,22 @@
         <v>9</v>
       </c>
       <c r="H80" s="1"/>
-      <c r="I80" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="J80" s="86" t="s">
-        <v>152</v>
+      <c r="I80" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="J80" s="85" t="s">
+        <v>147</v>
       </c>
       <c r="K80" s="7"/>
     </row>
     <row r="81" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B81" s="23">
+      <c r="B81" s="22">
         <v>76</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="40" t="s">
         <v>38</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -9352,22 +9923,22 @@
         <v>9</v>
       </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="21" t="s">
-        <v>145</v>
+      <c r="I81" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K81" s="7"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="23">
+    <row r="82" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B82" s="22">
         <v>77</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="40" t="s">
         <v>39</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -9378,18 +9949,22 @@
         <v>9</v>
       </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="7"/>
+      <c r="I82" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J82" s="86" t="s">
+        <v>263</v>
+      </c>
       <c r="K82" s="7"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="23">
+    <row r="83" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B83" s="22">
         <v>78</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="40" t="s">
         <v>40</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -9400,18 +9975,22 @@
         <v>9</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="7"/>
+      <c r="I83" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J83" s="86" t="s">
+        <v>261</v>
+      </c>
       <c r="K83" s="7"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="23">
+      <c r="B84" s="22">
         <v>79</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="40" t="s">
         <v>41</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -9422,19 +10001,23 @@
         <v>9</v>
       </c>
       <c r="H84" s="1"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="7"/>
+      <c r="I84" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J84" s="86" t="s">
+        <v>269</v>
+      </c>
       <c r="K84" s="7"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="23">
+    <row r="85" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B85" s="22">
         <v>80</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="22" t="s">
-        <v>42</v>
+      <c r="D85" s="40" t="s">
+        <v>244</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>8</v>
@@ -9444,19 +10027,23 @@
         <v>9</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="7"/>
+      <c r="I85" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J85" s="86" t="s">
+        <v>250</v>
+      </c>
       <c r="K85" s="7"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="23">
+    <row r="86" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B86" s="22">
         <v>81</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="22" t="s">
-        <v>43</v>
+      <c r="D86" s="40" t="s">
+        <v>245</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>8</v>
@@ -9466,19 +10053,23 @@
         <v>9</v>
       </c>
       <c r="H86" s="1"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="7"/>
+      <c r="I86" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J86" s="86" t="s">
+        <v>252</v>
+      </c>
       <c r="K86" s="7"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="23">
+      <c r="B87" s="22">
         <v>82</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="22" t="s">
-        <v>44</v>
+      <c r="D87" s="40" t="s">
+        <v>246</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>8</v>
@@ -9488,19 +10079,23 @@
         <v>9</v>
       </c>
       <c r="H87" s="1"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="7"/>
+      <c r="I87" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J87" s="86" t="s">
+        <v>254</v>
+      </c>
       <c r="K87" s="7"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="23">
+      <c r="B88" s="22">
         <v>83</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="22" t="s">
-        <v>45</v>
+      <c r="D88" s="40" t="s">
+        <v>247</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>8</v>
@@ -9510,19 +10105,23 @@
         <v>9</v>
       </c>
       <c r="H88" s="1"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="7"/>
+      <c r="I88" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J88" s="86" t="s">
+        <v>257</v>
+      </c>
       <c r="K88" s="7"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="23">
+      <c r="B89" s="22">
         <v>84</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="22" t="s">
-        <v>46</v>
+      <c r="D89" s="40" t="s">
+        <v>248</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>8</v>
@@ -9532,19 +10131,23 @@
         <v>9</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="7"/>
+      <c r="I89" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J89" s="86" t="s">
+        <v>258</v>
+      </c>
       <c r="K89" s="7"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="23">
+    <row r="90" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90" s="22">
         <v>85</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="22" t="s">
-        <v>47</v>
+      <c r="D90" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>8</v>
@@ -9554,19 +10157,23 @@
         <v>9</v>
       </c>
       <c r="H90" s="1"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="7"/>
+      <c r="I90" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="J90" s="86" t="s">
+        <v>265</v>
+      </c>
       <c r="K90" s="7"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="23">
+      <c r="B91" s="22">
         <v>86</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="41" t="s">
-        <v>48</v>
+      <c r="D91" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>8</v>
@@ -9576,21 +10183,21 @@
         <v>9</v>
       </c>
       <c r="H91" s="1"/>
-      <c r="I91" s="21" t="s">
-        <v>145</v>
+      <c r="I91" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" s="24">
+      <c r="B92" s="23">
         <v>87</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="41" t="s">
-        <v>49</v>
+      <c r="D92" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="E92" s="18" t="s">
         <v>8</v>
@@ -9600,158 +10207,158 @@
         <v>9</v>
       </c>
       <c r="H92" s="18"/>
-      <c r="I92" s="21" t="s">
-        <v>145</v>
+      <c r="I92" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="24">
+      <c r="B93" s="23">
         <v>88</v>
       </c>
-      <c r="C93" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D93" s="57" t="s">
-        <v>124</v>
+      <c r="C93" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" s="56" t="s">
+        <v>119</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
       <c r="G93" s="19"/>
       <c r="H93" s="18"/>
-      <c r="I93" s="21" t="s">
-        <v>123</v>
+      <c r="I93" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="24">
+      <c r="B94" s="23">
         <v>89</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="57" t="s">
-        <v>110</v>
+      <c r="D94" s="56" t="s">
+        <v>105</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="18"/>
       <c r="G94" s="19"/>
       <c r="H94" s="18"/>
-      <c r="I94" s="21" t="s">
-        <v>123</v>
+      <c r="I94" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" s="24">
+      <c r="B95" s="23">
         <v>90</v>
       </c>
-      <c r="C95" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D95" s="57" t="s">
-        <v>128</v>
+      <c r="C95" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" s="56" t="s">
+        <v>123</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
       <c r="G95" s="19"/>
       <c r="H95" s="18"/>
-      <c r="I95" s="21" t="s">
-        <v>127</v>
+      <c r="I95" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="24">
+      <c r="B96" s="23">
         <v>91</v>
       </c>
-      <c r="C96" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D96" s="57" t="s">
-        <v>130</v>
+      <c r="C96" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="56" t="s">
+        <v>125</v>
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
       <c r="G96" s="19"/>
       <c r="H96" s="18"/>
-      <c r="I96" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="J96" s="70"/>
-      <c r="K96" s="70"/>
+      <c r="I96" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J96" s="69"/>
+      <c r="K96" s="69"/>
     </row>
     <row r="97" spans="2:11" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="B97" s="23">
+      <c r="B97" s="22">
         <v>92</v>
       </c>
-      <c r="C97" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D97" s="41" t="s">
-        <v>173</v>
+      <c r="C97" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" s="40" t="s">
+        <v>167</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="2"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="J97" s="86" t="s">
-        <v>222</v>
+      <c r="I97" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J97" s="85" t="s">
+        <v>216</v>
       </c>
       <c r="K97" s="7"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="24">
+      <c r="B98" s="23">
         <v>93</v>
       </c>
-      <c r="C98" s="80" t="s">
+      <c r="C98" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="57" t="s">
-        <v>186</v>
+      <c r="D98" s="56" t="s">
+        <v>180</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
       <c r="G98" s="19"/>
       <c r="H98" s="18"/>
-      <c r="I98" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="J98" s="81"/>
-      <c r="K98" s="70"/>
+      <c r="I98" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J98" s="80"/>
+      <c r="K98" s="69"/>
     </row>
     <row r="99" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B99" s="24">
+      <c r="B99" s="23">
         <v>94</v>
       </c>
-      <c r="C99" s="80" t="s">
+      <c r="C99" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="57" t="s">
-        <v>209</v>
+      <c r="D99" s="56" t="s">
+        <v>203</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="18"/>
       <c r="G99" s="19"/>
       <c r="H99" s="18"/>
-      <c r="I99" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="J99" s="86" t="s">
-        <v>211</v>
-      </c>
-      <c r="K99" s="70"/>
+      <c r="I99" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J99" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="K99" s="69"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J100" s="85"/>
+      <c r="J100" s="84"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9834,12 +10441,47 @@
     <hyperlink ref="D64" location="Spring!C24" display=" @Service, what does this mean?"/>
     <hyperlink ref="J65" r:id="rId13"/>
     <hyperlink ref="D65" location="Spring!C25" display="How do you supply command line parameters to the Spring Boot Application?"/>
+    <hyperlink ref="J85" r:id="rId14" display="https://howtodoinjava.com/spring-aop/aspectj-before-annotation-example/"/>
+    <hyperlink ref="J86" r:id="rId15"/>
+    <hyperlink ref="J87" r:id="rId16"/>
+    <hyperlink ref="D88" location="Spring!C40" display=" @After"/>
+    <hyperlink ref="D87" location="Spring!C39" display=" @AfterThrowing"/>
+    <hyperlink ref="D86" location="Spring!C38" display=" @AfterReturing"/>
+    <hyperlink ref="D85" location="Spring!C37" display=" @Before"/>
+    <hyperlink ref="J88" r:id="rId17"/>
+    <hyperlink ref="J89" r:id="rId18"/>
+    <hyperlink ref="D89" location="Spring!C41" display=" @Around"/>
+    <hyperlink ref="J83" r:id="rId19" location=":~:text=Bean%20life%20cycle%20is%20managed,the%20spring%20container%20is%20closed."/>
+    <hyperlink ref="J82" r:id="rId20" location=":~:text=While%20the%20%40Component%20annotation%20is,name%3A%20%7B%7D&quot;%2C%20appName."/>
+    <hyperlink ref="D82" location="Spring!C34" display="How do you add bean to spring?"/>
+    <hyperlink ref="D83" location="Spring!C35" display="Define Bean life cycle?"/>
+    <hyperlink ref="D90" location="General!C42" display="Define Different Parts fo DispatcherServlet?"/>
+    <hyperlink ref="J90" r:id="rId21"/>
+    <hyperlink ref="D76" location="Spring!C28" display="What is Dependency Injection? how is this benificial"/>
+    <hyperlink ref="J84" r:id="rId22"/>
+    <hyperlink ref="D84" location="Spring!C36" display="What are the 4 ways of injecting Java Collection to Spring?"/>
+    <hyperlink ref="J75" r:id="rId23"/>
+    <hyperlink ref="D75" location="Spring!C27" display="Various components of Spring application ?"/>
+    <hyperlink ref="J74" r:id="rId24" location=":~:text=It%20also%20contains%20application%20configuration,Module%2C%20and%20Service%20API%20module."/>
+    <hyperlink ref="D74" location="Spring!C26" display="Various modules of Spring Application ?"/>
+    <hyperlink ref="J70" r:id="rId25"/>
+    <hyperlink ref="J69" r:id="rId26"/>
+    <hyperlink ref="D68" location="General!C36" display="How do you log in spring boot"/>
+    <hyperlink ref="D69" location="General!C37" display="What so you consider when designing an enterprise application"/>
+    <hyperlink ref="D70" location="General!C38" display="What is a design pattern?"/>
+    <hyperlink ref="J66" r:id="rId27" location=":~:text=Container%20deployment%20is%20a%20method,environments%20with%20speed%20at%20scale."/>
+    <hyperlink ref="D66" location="General!C34" display="What are container deployment models?"/>
+    <hyperlink ref="J67" r:id="rId28" location=":~:text=final%20indicates%20that%20the%20value,to%20use%20it)%2C%20and%20that"/>
+    <hyperlink ref="D67" location="General!C35" display="What does : public static final, declaration do?"/>
+    <hyperlink ref="J38" r:id="rId29"/>
+    <hyperlink ref="D38" location="Spring!C21" display="How does REST program in Spring work?"/>
+    <hyperlink ref="D42" location="General!C19" display="How does Interface help java programming or object oriented programming ?"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
-  <drawing r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
+  <drawing r:id="rId31"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9849,13 +10491,13 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="154.7109375" style="4" customWidth="1"/>
@@ -9863,167 +10505,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
-        <v>99</v>
+      <c r="A1" s="89" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
+      <c r="A2" s="89"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>120</v>
+      <c r="D5" s="36" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>3</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>54</v>
+      <c r="C8" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>4</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>65</v>
+      <c r="C9" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>5</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>188</v>
+      <c r="C10" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>6</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>206</v>
+      <c r="C11" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>7</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>192</v>
+      <c r="C12" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>8</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>198</v>
+      <c r="C13" s="21" t="s">
+        <v>192</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>9</v>
       </c>
-      <c r="C14" s="84" t="s">
-        <v>199</v>
+      <c r="C14" s="83" t="s">
+        <v>193</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>200</v>
+      <c r="C15" s="21" t="s">
+        <v>194</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>201</v>
+      <c r="C16" s="21" t="s">
+        <v>195</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>202</v>
+      <c r="C17" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="D17" s="5"/>
     </row>
@@ -10031,264 +10673,286 @@
       <c r="B18" s="9">
         <v>13</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>203</v>
+      <c r="C18" s="21" t="s">
+        <v>197</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="315" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>14</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>204</v>
+      <c r="C19" s="21" t="s">
+        <v>198</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>15</v>
       </c>
-      <c r="C20" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="270" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>16</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="16"/>
+      <c r="C21" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="22" spans="2:4" ht="135" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>17</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>230</v>
+      <c r="C22" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <v>18</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="62" t="s">
-        <v>243</v>
+      <c r="D23" s="61" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <v>19</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>20</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="62" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="61" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="180" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>21</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="210" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>22</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="61" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="75" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <v>23</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="61" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="29" spans="2:4" ht="135" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
         <v>24</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="62" t="s">
-        <v>159</v>
+      <c r="D29" s="61" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="165" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>25</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="62" t="s">
-        <v>155</v>
+      <c r="D30" s="61" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="240" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <v>26</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="62" t="s">
-        <v>151</v>
+      <c r="D31" s="61" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="105" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>27</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>28</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="195" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
         <v>29</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="9">
         <v>30</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
         <v>31</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="6" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="9">
         <v>32</v>
       </c>
-      <c r="C37" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="5"/>
+      <c r="C37" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
         <v>33</v>
       </c>
-      <c r="C38" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="9">
         <v>34</v>
       </c>
-      <c r="C39" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
         <v>35</v>
       </c>
-      <c r="C40" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="9">
         <v>36</v>
       </c>
-      <c r="C41" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="16"/>
+      <c r="C41" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="42" spans="2:4" ht="120" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
         <v>37</v>
       </c>
-      <c r="C42" s="38" t="s">
-        <v>48</v>
+      <c r="C42" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="120" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
         <v>38</v>
       </c>
-      <c r="C43" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="62" t="s">
-        <v>146</v>
+      <c r="C43" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="90" x14ac:dyDescent="0.25">
@@ -10296,10 +10960,10 @@
         <v>39</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="62" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="D44" s="61" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="75" x14ac:dyDescent="0.25">
@@ -10307,10 +10971,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="62" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="45" x14ac:dyDescent="0.25">
@@ -10318,10 +10982,10 @@
         <v>41</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D46" s="62" t="s">
-        <v>212</v>
+        <v>203</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -10359,8 +11023,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
-        <v>99</v>
+      <c r="A1" s="89" t="s">
+        <v>94</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -10368,21 +11032,21 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
+      <c r="A2" s="89"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -10390,259 +11054,259 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>120</v>
+      <c r="E5" s="30" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>1</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>116</v>
+      <c r="C6" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="40">
+      <c r="B7" s="39">
         <v>2</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>115</v>
+      <c r="C7" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>126</v>
+      <c r="C8" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <v>4</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="39">
+        <v>5</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="39">
+        <v>6</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="39">
+        <v>7</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="39">
+        <v>8</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="39">
+        <v>9</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="39">
+        <v>10</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="39">
+        <v>10</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="293.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="39">
+        <v>11</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="39">
+        <v>12</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="39">
+        <v>13</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="102" x14ac:dyDescent="0.25">
+      <c r="B20" s="39">
+        <v>14</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="39">
+        <v>15</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="40">
-        <v>5</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="40">
-        <v>6</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="40">
-        <v>7</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="40">
-        <v>8</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="40">
-        <v>9</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="40">
-        <v>10</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="40">
-        <v>10</v>
-      </c>
-      <c r="C16" s="29" t="s">
+    </row>
+    <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="39">
         <v>16</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="293.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="40">
-        <v>11</v>
-      </c>
-      <c r="C17" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="40">
-        <v>12</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="40">
-        <v>13</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="102" x14ac:dyDescent="0.25">
-      <c r="B20" s="40">
-        <v>14</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="40">
-        <v>15</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="40">
-        <v>16</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>111</v>
+      <c r="D22" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -10666,8 +11330,8 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10679,433 +11343,445 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
-        <v>99</v>
+      <c r="A1" s="89" t="s">
+        <v>94</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
+      <c r="A2" s="89"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>120</v>
+      <c r="D5" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>1</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>164</v>
+      <c r="C6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>2</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>178</v>
+      <c r="C7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>3</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="B9" s="27">
+        <v>4</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27">
+        <v>5</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="27">
+        <v>6</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="76">
+        <v>7</v>
+      </c>
+      <c r="C12" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="B9" s="28">
-        <v>4</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="171" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28">
-        <v>5</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="D12" s="78"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="76">
+        <v>8</v>
+      </c>
+      <c r="C13" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="28">
-        <v>6</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="77">
-        <v>7</v>
-      </c>
-      <c r="C12" s="78" t="s">
+      <c r="D13" s="78"/>
+    </row>
+    <row r="14" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="27">
+        <v>9</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="79"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="77">
-        <v>8</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="79"/>
-    </row>
-    <row r="14" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="28">
-        <v>9</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>197</v>
+      <c r="D14" s="59" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>10</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="27">
+        <v>11</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="27">
+        <v>12</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="27">
+        <v>13</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="34"/>
-    </row>
-    <row r="16" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="28">
+      <c r="D18" s="59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="27">
+        <v>14</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="27">
+        <v>15</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="33"/>
+    </row>
+    <row r="21" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="39">
+        <v>16</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="27">
+        <v>17</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="33"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="27">
+        <v>18</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="27">
+        <v>19</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="27">
+        <v>20</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="B26" s="27">
+        <v>21</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="B27" s="27">
+        <v>22</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="27">
+        <v>23</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="87"/>
+    </row>
+    <row r="29" spans="2:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="B29" s="27">
+        <v>24</v>
+      </c>
+      <c r="C29" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="28">
+      <c r="D29" s="59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="27">
+        <v>25</v>
+      </c>
+      <c r="C30" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="28">
+      <c r="D30" s="59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="27">
+        <v>26</v>
+      </c>
+      <c r="C31" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="28">
+      <c r="D31" s="33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B32" s="27">
+        <v>27</v>
+      </c>
+      <c r="C32" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="28">
+      <c r="D32" s="59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="27">
+        <v>28</v>
+      </c>
+      <c r="C33" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="34"/>
-    </row>
-    <row r="21" spans="2:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="40">
-        <v>16</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="28">
-        <v>17</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="34"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="28">
-        <v>18</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="34"/>
-    </row>
-    <row r="24" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="28">
-        <v>19</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="28">
-        <v>20</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="B26" s="28">
-        <v>21</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="B27" s="28">
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="2:4" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="27">
+        <v>29</v>
+      </c>
+      <c r="C34" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="28">
+      <c r="D34" s="59" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="243" x14ac:dyDescent="0.25">
+      <c r="B35" s="27">
+        <v>30</v>
+      </c>
+      <c r="C35" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="89"/>
-    </row>
-    <row r="29" spans="2:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="B29" s="28">
+      <c r="D35" s="59" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="141" x14ac:dyDescent="0.25">
+      <c r="B36" s="27">
+        <v>31</v>
+      </c>
+      <c r="C36" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="28">
+      <c r="D36" s="59" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="27">
+        <v>32</v>
+      </c>
+      <c r="C37" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="28">
+      <c r="D37" s="59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="B38" s="27">
+        <v>33</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="27">
+        <v>34</v>
+      </c>
+      <c r="C39" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B32" s="28">
+      <c r="D39" s="59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="27">
+        <v>35</v>
+      </c>
+      <c r="C40" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="28">
+      <c r="D40" s="59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="B41" s="27">
+        <v>36</v>
+      </c>
+      <c r="C41" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="35"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="28">
-        <v>29</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="34"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="28">
-        <v>30</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="34"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="28">
-        <v>31</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="28">
-        <v>32</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="34"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="28">
-        <v>33</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="34"/>
-    </row>
-    <row r="39" spans="2:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="28">
-        <v>34</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="60" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="28">
-        <v>35</v>
-      </c>
-      <c r="C40" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="60" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="B41" s="28">
-        <v>36</v>
-      </c>
-      <c r="C41" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="28">
+      <c r="D41" s="60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="B42" s="27">
         <v>37</v>
       </c>
-      <c r="C42" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="35"/>
+      <c r="C42" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="43" spans="2:4" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="74">
+      <c r="B43" s="73">
         <v>38</v>
       </c>
-      <c r="C43" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="76" t="s">
-        <v>174</v>
+      <c r="C43" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
